--- a/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.725066915150961</v>
+        <v>1.893950529755642</v>
       </c>
       <c r="C2">
-        <v>0.7289380475875475</v>
+        <v>0.2784427897682207</v>
       </c>
       <c r="D2">
-        <v>0.01830876473587928</v>
+        <v>0.07051180128503276</v>
       </c>
       <c r="E2">
-        <v>0.0945096412752271</v>
+        <v>0.04203683028830874</v>
       </c>
       <c r="F2">
-        <v>2.602319959884426</v>
+        <v>2.286007970450569</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.431224020669745</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08650022206879271</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5668733969420003</v>
+        <v>0.4326024771894552</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1478284564807524</v>
       </c>
       <c r="M2">
-        <v>0.6780220625364848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3369780241557265</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.881611576533928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.486277705924323</v>
+        <v>1.643309501595638</v>
       </c>
       <c r="C3">
-        <v>0.6268501085941693</v>
+        <v>0.2500393867152155</v>
       </c>
       <c r="D3">
-        <v>0.01851828778632836</v>
+        <v>0.07151082838471012</v>
       </c>
       <c r="E3">
-        <v>0.08309139849235692</v>
+        <v>0.04206424337852965</v>
       </c>
       <c r="F3">
-        <v>2.336314969330274</v>
+        <v>2.090855391733726</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.308131520009525</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07727173607316118</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4881056354711575</v>
+        <v>0.3732730712592058</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1341245539153419</v>
       </c>
       <c r="M3">
-        <v>0.5846667015389215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2945651831210654</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.733231535912523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.34178385852772</v>
+        <v>1.491785185084638</v>
       </c>
       <c r="C4">
-        <v>0.565289917993141</v>
+        <v>0.2326796902832342</v>
       </c>
       <c r="D4">
-        <v>0.01865730261584098</v>
+        <v>0.0721598245024424</v>
       </c>
       <c r="E4">
-        <v>0.07625955128885664</v>
+        <v>0.04210271223300222</v>
       </c>
       <c r="F4">
-        <v>2.177875839875682</v>
+        <v>1.97472589339101</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.235152444424287</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07177986337853781</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4404943918620319</v>
+        <v>0.3373151421043517</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1259312075405461</v>
       </c>
       <c r="M4">
-        <v>0.5283760441639771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2689813671868748</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.645143801469445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.283353910404117</v>
+        <v>1.430560201997849</v>
       </c>
       <c r="C5">
-        <v>0.5404437233704016</v>
+        <v>0.2256176606742599</v>
       </c>
       <c r="D5">
-        <v>0.0187161931219979</v>
+        <v>0.07243272947978241</v>
       </c>
       <c r="E5">
-        <v>0.07351524449571656</v>
+        <v>0.04212361415256183</v>
       </c>
       <c r="F5">
-        <v>2.114405125491203</v>
+        <v>1.928244725049254</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.205998396700764</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06958078776585097</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4212530048101968</v>
+        <v>0.32276322344417</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1226431218566475</v>
       </c>
       <c r="M5">
-        <v>0.5056600301905547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2586579828239088</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.609937047302409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.273676742182431</v>
+        <v>1.420423348567084</v>
       </c>
       <c r="C6">
-        <v>0.5363313724536738</v>
+        <v>0.2244455321568921</v>
       </c>
       <c r="D6">
-        <v>0.01872609722115826</v>
+        <v>0.07247854032514311</v>
       </c>
       <c r="E6">
-        <v>0.07306180793591821</v>
+        <v>0.0421273945210574</v>
       </c>
       <c r="F6">
-        <v>2.103928241047072</v>
+        <v>1.920575040057912</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.201190863962111</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0692178459194821</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4180668967543468</v>
+        <v>0.3203525281430828</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1221000711175151</v>
       </c>
       <c r="M6">
-        <v>0.5019005199596904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2569496087745833</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.604130722520139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.340994122338088</v>
+        <v>1.49095746148592</v>
       </c>
       <c r="C7">
-        <v>0.5649539143468587</v>
+        <v>0.232584409967842</v>
       </c>
       <c r="D7">
-        <v>0.01865808821603743</v>
+        <v>0.0721634714939654</v>
       </c>
       <c r="E7">
-        <v>0.07622238641025447</v>
+        <v>0.04210297323824541</v>
       </c>
       <c r="F7">
-        <v>2.177015589901046</v>
+        <v>1.974095730437483</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.234756978133618</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07175005458643469</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.440234281601434</v>
+        <v>0.3371185015846265</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1258866637602836</v>
       </c>
       <c r="M7">
-        <v>0.5280688309968298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2688417448224705</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.644666286020737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.642240140086415</v>
+        <v>1.806991327007552</v>
       </c>
       <c r="C8">
-        <v>0.6934786142107328</v>
+        <v>0.2686276595995452</v>
       </c>
       <c r="D8">
-        <v>0.0183786236833523</v>
+        <v>0.0708485542052486</v>
       </c>
       <c r="E8">
-        <v>0.09053214824320222</v>
+        <v>0.04204165672849047</v>
       </c>
       <c r="F8">
-        <v>2.509501775891962</v>
+        <v>2.217898238493035</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.388199032405126</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08327890393955784</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5395400153266294</v>
+        <v>0.412037291280491</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1430545074138152</v>
       </c>
       <c r="M8">
-        <v>0.6455965980186988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3222509571525833</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.829780339308826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.253955882044409</v>
+        <v>2.449211525626367</v>
       </c>
       <c r="C9">
-        <v>0.9565500427698908</v>
+        <v>0.3403436496564183</v>
       </c>
       <c r="D9">
-        <v>0.01793167566478537</v>
+        <v>0.06857825303324816</v>
       </c>
       <c r="E9">
-        <v>0.1202799214927062</v>
+        <v>0.04210374492278568</v>
       </c>
       <c r="F9">
-        <v>3.207074558157359</v>
+        <v>2.729601041881779</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.713158834860664</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1075210200281767</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7416967705975921</v>
+        <v>0.5635403580371445</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1787105112142129</v>
       </c>
       <c r="M9">
-        <v>0.8860627285960874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4312615066217873</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.220166465059307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.722692239839205</v>
+        <v>2.940460876490931</v>
       </c>
       <c r="C10">
-        <v>1.159933933337641</v>
+        <v>0.3942911435360941</v>
       </c>
       <c r="D10">
-        <v>0.01769546350437601</v>
+        <v>0.06713890787789367</v>
       </c>
       <c r="E10">
-        <v>0.1435832848747474</v>
+        <v>0.04227697956626297</v>
       </c>
       <c r="F10">
-        <v>3.758026180670299</v>
+        <v>3.132663355262736</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.971965167552312</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1267222477552252</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8970361802193736</v>
+        <v>0.6789754472148815</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2064866897207622</v>
       </c>
       <c r="M10">
-        <v>1.071708147253801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.5149551222862527</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.528974084205799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.941831535503752</v>
+        <v>3.169609520661254</v>
       </c>
       <c r="C11">
-        <v>1.25554070454109</v>
+        <v>0.4192678092815072</v>
       </c>
       <c r="D11">
-        <v>0.01761636342529371</v>
+        <v>0.06654447151546705</v>
       </c>
       <c r="E11">
-        <v>0.1546084879106644</v>
+        <v>0.04238769769273798</v>
       </c>
       <c r="F11">
-        <v>4.01979580344647</v>
+        <v>3.323593745111737</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.095461909508202</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1358625312068114</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9697844140311673</v>
+        <v>0.7327246165398051</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2195585173079024</v>
       </c>
       <c r="M11">
-        <v>1.158866028635522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.5540653181961162</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.675577881164273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.025829701612167</v>
+        <v>3.257335986074168</v>
       </c>
       <c r="C12">
-        <v>1.292275283720414</v>
+        <v>0.4288039423844339</v>
       </c>
       <c r="D12">
-        <v>0.0175913384987183</v>
+        <v>0.06632910683914162</v>
       </c>
       <c r="E12">
-        <v>0.1588551439179327</v>
+        <v>0.04243461457237085</v>
       </c>
       <c r="F12">
-        <v>4.120793494988391</v>
+        <v>3.397142529105338</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.143192428280074</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1393921208272708</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9976904776975744</v>
+        <v>0.7532880911199342</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.224579961277243</v>
       </c>
       <c r="M12">
-        <v>1.192333223044564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.5690484954785333</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.732101231883505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.007691167691689</v>
+        <v>3.238397790468412</v>
       </c>
       <c r="C13">
-        <v>1.284338729071521</v>
+        <v>0.4267464295476202</v>
       </c>
       <c r="D13">
-        <v>0.01759649368713312</v>
+        <v>0.06637503793561805</v>
       </c>
       <c r="E13">
-        <v>0.1579371781432499</v>
+        <v>0.04242428130256748</v>
       </c>
       <c r="F13">
-        <v>4.098953904177705</v>
+        <v>3.381244270085659</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.132867512463505</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1386287442771632</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9916634704717211</v>
+        <v>0.7488494957176783</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2234951774070026</v>
       </c>
       <c r="M13">
-        <v>1.185103618808213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.565813496229346</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.719880915817498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.948720743755246</v>
+        <v>3.17680689176035</v>
       </c>
       <c r="C14">
-        <v>1.258551709237736</v>
+        <v>0.4200506940233311</v>
       </c>
       <c r="D14">
-        <v>0.01761420042066675</v>
+        <v>0.0665265515942508</v>
       </c>
       <c r="E14">
-        <v>0.1549563605303632</v>
+        <v>0.04239145508006192</v>
       </c>
       <c r="F14">
-        <v>4.028065760768072</v>
+        <v>3.329618669656696</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.099368539397105</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1361514797879195</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9720727258318362</v>
+        <v>0.7344119836668099</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2199701496175663</v>
       </c>
       <c r="M14">
-        <v>1.16160967064274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.5552943795446055</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.680207114790804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.912737132804409</v>
+        <v>3.139209112122785</v>
       </c>
       <c r="C15">
-        <v>1.242828272663019</v>
+        <v>0.4159600123392124</v>
       </c>
       <c r="D15">
-        <v>0.01762571596555063</v>
+        <v>0.06662066002956024</v>
       </c>
       <c r="E15">
-        <v>0.1531401961151531</v>
+        <v>0.04237201072735886</v>
       </c>
       <c r="F15">
-        <v>3.984897067875949</v>
+        <v>3.298163993114599</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.078979489411395</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1346433097072328</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.96012131093363</v>
+        <v>0.7255969315518982</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.217820545386914</v>
       </c>
       <c r="M15">
-        <v>1.147281518933667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.5488744011166489</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.656041019602441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.708503462697308</v>
+        <v>2.925611006559848</v>
       </c>
       <c r="C16">
-        <v>1.153755025943269</v>
+        <v>0.3926688951033981</v>
       </c>
       <c r="D16">
-        <v>0.01770127290149581</v>
+        <v>0.06717905687310122</v>
       </c>
       <c r="E16">
-        <v>0.1428721760147802</v>
+        <v>0.04227041922975072</v>
       </c>
       <c r="F16">
-        <v>3.741165243175601</v>
+        <v>3.120351145985012</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.964021561282621</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1261338956345597</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8923286313889918</v>
+        <v>0.6754903491338737</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.205641914399763</v>
       </c>
       <c r="M16">
-        <v>1.066072661429317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.5124220273962408</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.519526945010895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.584836447035059</v>
+        <v>2.796121560772576</v>
       </c>
       <c r="C17">
-        <v>1.099959693511437</v>
+        <v>0.3785024585063184</v>
       </c>
       <c r="D17">
-        <v>0.01775544775521887</v>
+        <v>0.06753777480774659</v>
       </c>
       <c r="E17">
-        <v>0.1366888735776932</v>
+        <v>0.0422165400925234</v>
       </c>
       <c r="F17">
-        <v>3.594676737449504</v>
+        <v>3.013315792317712</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.895065981678471</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1210242231859517</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8513125709563667</v>
+        <v>0.6450899750034793</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1982883373933362</v>
       </c>
       <c r="M17">
-        <v>1.016995801205816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.4903414787250853</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.437434503880255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.514251444654576</v>
+        <v>2.722167906989625</v>
       </c>
       <c r="C18">
-        <v>1.069302682871694</v>
+        <v>0.3703942782193081</v>
       </c>
       <c r="D18">
-        <v>0.01778921770118558</v>
+        <v>0.06774970656134016</v>
       </c>
       <c r="E18">
-        <v>0.1331716290768981</v>
+        <v>0.04218852727367928</v>
       </c>
       <c r="F18">
-        <v>3.511450686360774</v>
+        <v>2.952454401645809</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.855937951276701</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.118122767378253</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8279133891765866</v>
+        <v>0.6277188056369525</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1940992455182879</v>
       </c>
       <c r="M18">
-        <v>0.9890179236453776</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.477737408700726</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.39078525397727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.490441519428771</v>
+        <v>2.697214784925904</v>
       </c>
       <c r="C19">
-        <v>1.058969197287695</v>
+        <v>0.3676554177505125</v>
       </c>
       <c r="D19">
-        <v>0.01780107628435523</v>
+        <v>0.06782239607931828</v>
       </c>
       <c r="E19">
-        <v>0.131987188060652</v>
+        <v>0.04217954248619726</v>
       </c>
       <c r="F19">
-        <v>3.483441117220622</v>
+        <v>2.931963914962154</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.842777641362062</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1171465405267362</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8200221913573245</v>
+        <v>0.6218559502551386</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1926875968053281</v>
       </c>
       <c r="M19">
-        <v>0.979585941505988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.4734857087543602</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.375084576914062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.597943484680911</v>
+        <v>2.809850634767713</v>
       </c>
       <c r="C20">
-        <v>1.105656252113761</v>
+        <v>0.3800062571398541</v>
       </c>
       <c r="D20">
-        <v>0.01774940492041743</v>
+        <v>0.06749900119995544</v>
       </c>
       <c r="E20">
-        <v>0.1373429645584565</v>
+        <v>0.0422219647564761</v>
       </c>
       <c r="F20">
-        <v>3.610162228490168</v>
+        <v>3.024636093720204</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.902350291078335</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1215642079762489</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8556585158793411</v>
+        <v>0.6483140958555325</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1990668878037098</v>
       </c>
       <c r="M20">
-        <v>1.022193762897956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.4926818837381788</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.446113711977546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.966012807413222</v>
+        <v>3.194870600641991</v>
       </c>
       <c r="C21">
-        <v>1.266110833930952</v>
+        <v>0.4220151441621454</v>
       </c>
       <c r="D21">
-        <v>0.01760885823133762</v>
+        <v>0.06648177492137108</v>
       </c>
       <c r="E21">
-        <v>0.1558298620219105</v>
+        <v>0.04240095805168309</v>
       </c>
       <c r="F21">
-        <v>4.048834202454913</v>
+        <v>3.344747144438941</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.109180629084904</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1368771696934594</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.977816782552992</v>
+        <v>0.7386466620642622</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2210035229028051</v>
       </c>
       <c r="M21">
-        <v>1.168497227299298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.5583792000812977</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.691831836824093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.212577670988253</v>
+        <v>3.452133196101045</v>
       </c>
       <c r="C22">
-        <v>1.374118539814276</v>
+        <v>0.4499337398745809</v>
       </c>
       <c r="D22">
-        <v>0.01754624014930783</v>
+        <v>0.0658743136308928</v>
       </c>
       <c r="E22">
-        <v>0.16833584750038</v>
+        <v>0.04254725221488176</v>
       </c>
       <c r="F22">
-        <v>4.346592958149785</v>
+        <v>3.561317891777435</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.250058780058026</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1472893226965688</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.059773822478675</v>
+        <v>0.7989250519747628</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.235761509781824</v>
       </c>
       <c r="M22">
-        <v>1.266852230382852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6023377447162872</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.858366707698849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.080370345546726</v>
+        <v>3.314262587955511</v>
       </c>
       <c r="C23">
-        <v>1.316153266154743</v>
+        <v>0.4349850433034419</v>
       </c>
       <c r="D23">
-        <v>0.01757666319959483</v>
+        <v>0.06619288701234183</v>
       </c>
       <c r="E23">
-        <v>0.1616184706996009</v>
+        <v>0.04246634404216465</v>
       </c>
       <c r="F23">
-        <v>4.186561893792231</v>
+        <v>3.444999173755605</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.174297443210719</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1416914545307577</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.015816302943819</v>
+        <v>0.7666281923962117</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2278432157971935</v>
       </c>
       <c r="M23">
-        <v>1.214080799112743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.5787741331411596</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.768894019495178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.592016207831421</v>
+        <v>2.803642199440617</v>
       </c>
       <c r="C24">
-        <v>1.103080001345688</v>
+        <v>0.3793262778681878</v>
       </c>
       <c r="D24">
-        <v>0.01775212877484655</v>
+        <v>0.06751651307181916</v>
       </c>
       <c r="E24">
-        <v>0.1370471336352601</v>
+        <v>0.04221950306643496</v>
       </c>
       <c r="F24">
-        <v>3.603158167547406</v>
+        <v>3.019516095762242</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.899055459314567</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1213199689524593</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.853693153144846</v>
+        <v>0.646856141735249</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1987147856463167</v>
       </c>
       <c r="M24">
-        <v>1.019843031404271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.4916235070309867</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.442188148265004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.085599943595724</v>
+        <v>2.272514535334722</v>
       </c>
       <c r="C25">
-        <v>0.8838776774891812</v>
+        <v>0.3207713322487535</v>
       </c>
       <c r="D25">
-        <v>0.01803889138767722</v>
+        <v>0.06915553774209116</v>
       </c>
       <c r="E25">
-        <v>0.1120115663542975</v>
+        <v>0.04206583465063751</v>
       </c>
       <c r="F25">
-        <v>3.012460260967657</v>
+        <v>2.586930945008021</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,19 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.62215502501445</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1007501470253658</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6859941989715068</v>
+        <v>0.5219349708025547</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1688159769694408</v>
       </c>
       <c r="M25">
-        <v>0.8196640506282051</v>
+        <v>0.4012168848628761</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.111111401711469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.893950529755642</v>
+        <v>1.064180168887304</v>
       </c>
       <c r="C2">
-        <v>0.2784427897682207</v>
+        <v>0.218482433165974</v>
       </c>
       <c r="D2">
-        <v>0.07051180128503276</v>
+        <v>0.05871461369930842</v>
       </c>
       <c r="E2">
-        <v>0.04203683028830874</v>
+        <v>1.387749502022729</v>
       </c>
       <c r="F2">
-        <v>2.286007970450569</v>
+        <v>0.4557210187832865</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.232042743094123</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4326024771894552</v>
+        <v>1.228325938342664</v>
       </c>
       <c r="L2">
-        <v>0.1478284564807524</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3369780241557265</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.881611576533928</v>
+        <v>1.280240133294939</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.643309501595638</v>
+        <v>0.9276680820630361</v>
       </c>
       <c r="C3">
-        <v>0.2500393867152155</v>
+        <v>0.1925483666823169</v>
       </c>
       <c r="D3">
-        <v>0.07151082838471012</v>
+        <v>0.05291954097270235</v>
       </c>
       <c r="E3">
-        <v>0.04206424337852965</v>
+        <v>1.192570688491486</v>
       </c>
       <c r="F3">
-        <v>2.090855391733726</v>
+        <v>0.4286450656629412</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2352603042514723</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3732730712592058</v>
+        <v>1.072825014835502</v>
       </c>
       <c r="L3">
-        <v>0.1341245539153419</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2945651831210654</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.733231535912523</v>
+        <v>1.238999812584041</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.491785185084638</v>
+        <v>0.8439631575186013</v>
       </c>
       <c r="C4">
-        <v>0.2326796902832342</v>
+        <v>0.1766566667103291</v>
       </c>
       <c r="D4">
-        <v>0.0721598245024424</v>
+        <v>0.04934774598966385</v>
       </c>
       <c r="E4">
-        <v>0.04210271223300222</v>
+        <v>1.074793791895488</v>
       </c>
       <c r="F4">
-        <v>1.97472589339101</v>
+        <v>0.413169348332552</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2379713748037879</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3373151421043517</v>
+        <v>0.9774826233396823</v>
       </c>
       <c r="L4">
-        <v>0.1259312075405461</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2689813671868748</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.645143801469445</v>
+        <v>1.217409331296039</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.430560201997849</v>
+        <v>0.8098673664680121</v>
       </c>
       <c r="C5">
-        <v>0.2256176606742599</v>
+        <v>0.1701850451216558</v>
       </c>
       <c r="D5">
-        <v>0.07243272947978241</v>
+        <v>0.04788858075841773</v>
       </c>
       <c r="E5">
-        <v>0.04212361415256183</v>
+        <v>1.027239719044985</v>
       </c>
       <c r="F5">
-        <v>1.928244725049254</v>
+        <v>0.4071332855397998</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2392517946594168</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.32276322344417</v>
+        <v>0.9386468044156402</v>
       </c>
       <c r="L5">
-        <v>0.1226431218566475</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2586579828239088</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.609937047302409</v>
+        <v>1.209492735018571</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.420423348567084</v>
+        <v>0.8042062791835463</v>
       </c>
       <c r="C6">
-        <v>0.2244455321568921</v>
+        <v>0.1691105999134663</v>
       </c>
       <c r="D6">
-        <v>0.07247854032514311</v>
+        <v>0.04764606248413372</v>
       </c>
       <c r="E6">
-        <v>0.0421273945210574</v>
+        <v>1.01936787212081</v>
       </c>
       <c r="F6">
-        <v>1.920575040057912</v>
+        <v>0.406146813740456</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2394747535847372</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3203525281430828</v>
+        <v>0.9321986928390515</v>
       </c>
       <c r="L6">
-        <v>0.1221000711175151</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2569496087745833</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.604130722520139</v>
+        <v>1.208229853785568</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.49095746148592</v>
+        <v>0.8435032883039355</v>
       </c>
       <c r="C7">
-        <v>0.232584409967842</v>
+        <v>0.1765693750749477</v>
       </c>
       <c r="D7">
-        <v>0.0721634714939654</v>
+        <v>0.04932808213790452</v>
       </c>
       <c r="E7">
-        <v>0.04210297323824541</v>
+        <v>1.07415077414349</v>
       </c>
       <c r="F7">
-        <v>1.974095730437483</v>
+        <v>0.4130868726443211</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.237987943749431</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3371185015846265</v>
+        <v>0.9769588229763713</v>
       </c>
       <c r="L7">
-        <v>0.1258866637602836</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2688417448224705</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.644666286020737</v>
+        <v>1.217299067592492</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.806991327007552</v>
+        <v>1.017078338857658</v>
       </c>
       <c r="C8">
-        <v>0.2686276595995452</v>
+        <v>0.2095314506259314</v>
       </c>
       <c r="D8">
-        <v>0.0708485542052486</v>
+        <v>0.05671915988883569</v>
       </c>
       <c r="E8">
-        <v>0.04204165672849047</v>
+        <v>1.319974573271779</v>
       </c>
       <c r="F8">
-        <v>2.217898238493035</v>
+        <v>0.4461352522651509</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2329937385765746</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.412037291280491</v>
+        <v>1.174670275025022</v>
       </c>
       <c r="L8">
-        <v>0.1430545074138152</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3222509571525833</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.829780339308826</v>
+        <v>1.265210916659612</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.449211525626367</v>
+        <v>1.359063943063745</v>
       </c>
       <c r="C9">
-        <v>0.3403436496564183</v>
+        <v>0.274605680929767</v>
       </c>
       <c r="D9">
-        <v>0.06857825303324816</v>
+        <v>0.07111639128886083</v>
       </c>
       <c r="E9">
-        <v>0.04210374492278568</v>
+        <v>1.822294790034505</v>
       </c>
       <c r="F9">
-        <v>2.729601041881779</v>
+        <v>0.5209569580803688</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2294844634938542</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5635403580371445</v>
+        <v>1.564316285662926</v>
       </c>
       <c r="L9">
-        <v>0.1787105112142129</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4312615066217873</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.220166465059307</v>
+        <v>1.391512250121906</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.940460876490931</v>
+        <v>1.612381127515278</v>
       </c>
       <c r="C10">
-        <v>0.3942911435360941</v>
+        <v>0.3229641541441595</v>
       </c>
       <c r="D10">
-        <v>0.06713890787789367</v>
+        <v>0.08165333609021275</v>
       </c>
       <c r="E10">
-        <v>0.04227697956626297</v>
+        <v>2.209748141276279</v>
       </c>
       <c r="F10">
-        <v>3.132663355262736</v>
+        <v>0.5833830622761198</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2314097837064537</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6789754472148815</v>
+        <v>1.85309246827731</v>
       </c>
       <c r="L10">
-        <v>0.2064866897207622</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5149551222862527</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.528974084205799</v>
+        <v>1.508153758027333</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.169609520661254</v>
+        <v>1.728336261271778</v>
       </c>
       <c r="C11">
-        <v>0.4192678092815072</v>
+        <v>0.345153669425514</v>
       </c>
       <c r="D11">
-        <v>0.06654447151546705</v>
+        <v>0.08644258834758034</v>
       </c>
       <c r="E11">
-        <v>0.04238769769273798</v>
+        <v>2.391552916646347</v>
       </c>
       <c r="F11">
-        <v>3.323593745111737</v>
+        <v>0.6137311829266281</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2334279239907815</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7327246165398051</v>
+        <v>1.985335942249833</v>
       </c>
       <c r="L11">
-        <v>0.2195585173079024</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5540653181961162</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.675577881164273</v>
+        <v>1.567408790004919</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.257335986074168</v>
+        <v>1.77237314228401</v>
       </c>
       <c r="C12">
-        <v>0.4288039423844339</v>
+        <v>0.3535902859390205</v>
       </c>
       <c r="D12">
-        <v>0.06632910683914162</v>
+        <v>0.0882559674652299</v>
       </c>
       <c r="E12">
-        <v>0.04243461457237085</v>
+        <v>2.461343519011123</v>
       </c>
       <c r="F12">
-        <v>3.397142529105338</v>
+        <v>0.6255340081426795</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2343715730389953</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7532880911199342</v>
+        <v>2.035569169114098</v>
       </c>
       <c r="L12">
-        <v>0.224579961277243</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5690484954785333</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.732101231883505</v>
+        <v>1.590831486664342</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.238397790468412</v>
+        <v>1.762882953530635</v>
       </c>
       <c r="C13">
-        <v>0.4267464295476202</v>
+        <v>0.351771690086764</v>
       </c>
       <c r="D13">
-        <v>0.06637503793561805</v>
+        <v>0.08786542663532515</v>
       </c>
       <c r="E13">
-        <v>0.04242428130256748</v>
+        <v>2.446268290551018</v>
       </c>
       <c r="F13">
-        <v>3.381244270085659</v>
+        <v>0.6229777305752293</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2341601047941815</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7488494957176783</v>
+        <v>2.02474313149466</v>
       </c>
       <c r="L13">
-        <v>0.2234951774070026</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.565813496229346</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.719880915817498</v>
+        <v>1.585741637845842</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.17680689176035</v>
+        <v>1.731956509098126</v>
       </c>
       <c r="C14">
-        <v>0.4200506940233311</v>
+        <v>0.3458470354102019</v>
       </c>
       <c r="D14">
-        <v>0.0665265515942508</v>
+        <v>0.08659177799579254</v>
       </c>
       <c r="E14">
-        <v>0.04239145508006192</v>
+        <v>2.397274782398796</v>
       </c>
       <c r="F14">
-        <v>3.329618669656696</v>
+        <v>0.614695799338854</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2335018707620264</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7344119836668099</v>
+        <v>1.989465365545726</v>
       </c>
       <c r="L14">
-        <v>0.2199701496175663</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5552943795446055</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.680207114790804</v>
+        <v>1.569315499460117</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.139209112122785</v>
+        <v>1.713030474429189</v>
       </c>
       <c r="C15">
-        <v>0.4159600123392124</v>
+        <v>0.3422226357398017</v>
       </c>
       <c r="D15">
-        <v>0.06662066002956024</v>
+        <v>0.08581161629897593</v>
       </c>
       <c r="E15">
-        <v>0.04237201072735886</v>
+        <v>2.367392599407978</v>
       </c>
       <c r="F15">
-        <v>3.298163993114599</v>
+        <v>0.6096642783531081</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.233122523673309</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7255969315518982</v>
+        <v>1.967877884027786</v>
       </c>
       <c r="L15">
-        <v>0.217820545386914</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5488744011166489</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.656041019602441</v>
+        <v>1.559385099241609</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.925611006559848</v>
+        <v>1.604819644442557</v>
       </c>
       <c r="C16">
-        <v>0.3926688951033981</v>
+        <v>0.321518397237412</v>
       </c>
       <c r="D16">
-        <v>0.06717905687310122</v>
+        <v>0.08134029693110989</v>
       </c>
       <c r="E16">
-        <v>0.04227041922975072</v>
+        <v>2.197990606371675</v>
       </c>
       <c r="F16">
-        <v>3.120351145985012</v>
+        <v>0.5814415035212974</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2313021440213987</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6754903491338737</v>
+        <v>1.844470145479562</v>
       </c>
       <c r="L16">
-        <v>0.205641914399763</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5124220273962408</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.519526945010895</v>
+        <v>1.504413727676621</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.796121560772576</v>
+        <v>1.538636319530696</v>
       </c>
       <c r="C17">
-        <v>0.3785024585063184</v>
+        <v>0.3088703204763306</v>
       </c>
       <c r="D17">
-        <v>0.06753777480774659</v>
+        <v>0.07859650496863679</v>
       </c>
       <c r="E17">
-        <v>0.0422165400925234</v>
+        <v>2.095588467760891</v>
       </c>
       <c r="F17">
-        <v>3.013315792317712</v>
+        <v>0.5646478676890681</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2304883277570511</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6450899750034793</v>
+        <v>1.769008237626736</v>
       </c>
       <c r="L17">
-        <v>0.1982883373933362</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4903414787250853</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.437434503880255</v>
+        <v>1.472340762786416</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.722167906989625</v>
+        <v>1.500635633390772</v>
       </c>
       <c r="C18">
-        <v>0.3703942782193081</v>
+        <v>0.3016130332851219</v>
       </c>
       <c r="D18">
-        <v>0.06774970656134016</v>
+        <v>0.07701794190185041</v>
       </c>
       <c r="E18">
-        <v>0.04218852727367928</v>
+        <v>2.037202078336364</v>
       </c>
       <c r="F18">
-        <v>2.952454401645809</v>
+        <v>0.5551702058464656</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2301267750926712</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6277188056369525</v>
+        <v>1.725685244591034</v>
       </c>
       <c r="L18">
-        <v>0.1940992455182879</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.477737408700726</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.39078525397727</v>
+        <v>1.454470183444329</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.697214784925904</v>
+        <v>1.48777994131359</v>
       </c>
       <c r="C19">
-        <v>0.3676554177505125</v>
+        <v>0.2991586694088255</v>
       </c>
       <c r="D19">
-        <v>0.06782239607931828</v>
+        <v>0.07648338686355771</v>
       </c>
       <c r="E19">
-        <v>0.04217954248619726</v>
+        <v>2.017517306525903</v>
       </c>
       <c r="F19">
-        <v>2.931963914962154</v>
+        <v>0.5519915453465813</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.230022217111383</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6218559502551386</v>
+        <v>1.711029838493232</v>
       </c>
       <c r="L19">
-        <v>0.1926875968053281</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4734857087543602</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.375084576914062</v>
+        <v>1.448515899612858</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.809850634767713</v>
+        <v>1.545674630521546</v>
       </c>
       <c r="C20">
-        <v>0.3800062571398541</v>
+        <v>0.3102148686694193</v>
       </c>
       <c r="D20">
-        <v>0.06749900119995544</v>
+        <v>0.07888862576515265</v>
       </c>
       <c r="E20">
-        <v>0.0422219647564761</v>
+        <v>2.106435290189708</v>
       </c>
       <c r="F20">
-        <v>3.024636093720204</v>
+        <v>0.5664165746378487</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2305638287255576</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6483140958555325</v>
+        <v>1.7770327314702</v>
       </c>
       <c r="L20">
-        <v>0.1990668878037098</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4926818837381788</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.446113711977546</v>
+        <v>1.475694625033356</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.194870600641991</v>
+        <v>1.741036703489925</v>
       </c>
       <c r="C21">
-        <v>0.4220151441621454</v>
+        <v>0.3475862742506308</v>
       </c>
       <c r="D21">
-        <v>0.06648177492137108</v>
+        <v>0.08696588190408505</v>
       </c>
       <c r="E21">
-        <v>0.04240095805168309</v>
+        <v>2.411638450192783</v>
       </c>
       <c r="F21">
-        <v>3.344747144438941</v>
+        <v>0.6171197173752034</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2336902126840172</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7386466620642622</v>
+        <v>1.999822832542975</v>
       </c>
       <c r="L21">
-        <v>0.2210035229028051</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5583792000812977</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.691831836824093</v>
+        <v>1.574112757200794</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.452133196101045</v>
+        <v>1.869471162011422</v>
       </c>
       <c r="C22">
-        <v>0.4499337398745809</v>
+        <v>0.3722119392090519</v>
       </c>
       <c r="D22">
-        <v>0.0658743136308928</v>
+        <v>0.09224383191658347</v>
       </c>
       <c r="E22">
-        <v>0.04254725221488176</v>
+        <v>2.616697217271948</v>
       </c>
       <c r="F22">
-        <v>3.561317891777435</v>
+        <v>0.6520839978804389</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2367873902998916</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7989250519747628</v>
+        <v>2.146351149329803</v>
       </c>
       <c r="L22">
-        <v>0.235761509781824</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6023377447162872</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.858366707698849</v>
+        <v>1.644220839321889</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.314262587955511</v>
+        <v>1.800845840844431</v>
       </c>
       <c r="C23">
-        <v>0.4349850433034419</v>
+        <v>0.3590480146539221</v>
       </c>
       <c r="D23">
-        <v>0.06619288701234183</v>
+        <v>0.08942684844434723</v>
       </c>
       <c r="E23">
-        <v>0.04246634404216465</v>
+        <v>2.50668835565429</v>
       </c>
       <c r="F23">
-        <v>3.444999173755605</v>
+        <v>0.6332450030422763</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2350325477525956</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7666281923962117</v>
+        <v>2.068051396893793</v>
       </c>
       <c r="L23">
-        <v>0.2278432157971935</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5787741331411596</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.768894019495178</v>
+        <v>1.606240139868902</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.803642199440617</v>
+        <v>1.542492459293413</v>
       </c>
       <c r="C24">
-        <v>0.3793262778681878</v>
+        <v>0.3096069544923523</v>
       </c>
       <c r="D24">
-        <v>0.06751651307181916</v>
+        <v>0.07875656147128041</v>
       </c>
       <c r="E24">
-        <v>0.04221950306643496</v>
+        <v>2.10152993896584</v>
       </c>
       <c r="F24">
-        <v>3.019516095762242</v>
+        <v>0.5656163924655786</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2305293647000859</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.646856141735249</v>
+        <v>1.773404669781883</v>
       </c>
       <c r="L24">
-        <v>0.1987147856463167</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4916235070309867</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.442188148265004</v>
+        <v>1.474176579812848</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.272514535334722</v>
+        <v>1.266269815838399</v>
       </c>
       <c r="C25">
-        <v>0.3207713322487535</v>
+        <v>0.2569271617443576</v>
       </c>
       <c r="D25">
-        <v>0.06915553774209116</v>
+        <v>0.06723012614432378</v>
       </c>
       <c r="E25">
-        <v>0.04206583465063751</v>
+        <v>1.683650221058613</v>
       </c>
       <c r="F25">
-        <v>2.586930945008021</v>
+        <v>0.4995108681944416</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2296948848859302</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5219349708025547</v>
+        <v>1.458569942910628</v>
       </c>
       <c r="L25">
-        <v>0.1688159769694408</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4012168848628761</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.111111401711469</v>
+        <v>1.353475982975823</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.064180168887304</v>
+        <v>0.3429493964259791</v>
       </c>
       <c r="C2">
-        <v>0.218482433165974</v>
+        <v>0.06965172002792031</v>
       </c>
       <c r="D2">
-        <v>0.05871461369930842</v>
+        <v>0.0261353511007556</v>
       </c>
       <c r="E2">
-        <v>1.387749502022729</v>
+        <v>0.4172994359769149</v>
       </c>
       <c r="F2">
-        <v>0.4557210187832865</v>
+        <v>0.6289244698072523</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.232042743094123</v>
+        <v>0.472506710197468</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.228325938342664</v>
+        <v>0.3790598273342312</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.280240133294939</v>
+        <v>2.123885881344364</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9276680820630361</v>
+        <v>0.3009604902049148</v>
       </c>
       <c r="C3">
-        <v>0.1925483666823169</v>
+        <v>0.06153662247182012</v>
       </c>
       <c r="D3">
-        <v>0.05291954097270235</v>
+        <v>0.02409310344395266</v>
       </c>
       <c r="E3">
-        <v>1.192570688491486</v>
+        <v>0.3641208024745879</v>
       </c>
       <c r="F3">
-        <v>0.4286450656629412</v>
+        <v>0.6278367374468559</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2352603042514723</v>
+        <v>0.4777763309126399</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.072825014835502</v>
+        <v>0.3309631340928831</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.238999812584041</v>
+        <v>2.133867296146576</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8439631575186013</v>
+        <v>0.2751380727284243</v>
       </c>
       <c r="C4">
-        <v>0.1766566667103291</v>
+        <v>0.05652751646485399</v>
       </c>
       <c r="D4">
-        <v>0.04934774598966385</v>
+        <v>0.02282952962735152</v>
       </c>
       <c r="E4">
-        <v>1.074793791895488</v>
+        <v>0.3315522843216456</v>
       </c>
       <c r="F4">
-        <v>0.413169348332552</v>
+        <v>0.6276358551096237</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2379713748037879</v>
+        <v>0.4813320661462512</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9774826233396823</v>
+        <v>0.3013555354349648</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.217409331296039</v>
+        <v>2.141531551795708</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8098673664680121</v>
+        <v>0.2646054256214541</v>
       </c>
       <c r="C5">
-        <v>0.1701850451216558</v>
+        <v>0.05447967130379539</v>
       </c>
       <c r="D5">
-        <v>0.04788858075841773</v>
+        <v>0.02231222978161185</v>
       </c>
       <c r="E5">
-        <v>1.027239719044985</v>
+        <v>0.3182997360578526</v>
       </c>
       <c r="F5">
-        <v>0.4071332855397998</v>
+        <v>0.6276712106583346</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2392517946594168</v>
+        <v>0.4828614232459891</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9386468044156402</v>
+        <v>0.2892715992569777</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.209492735018571</v>
+        <v>2.145040146667014</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8042062791835463</v>
+        <v>0.2628559110286233</v>
       </c>
       <c r="C6">
-        <v>0.1691105999134663</v>
+        <v>0.05413923129175657</v>
       </c>
       <c r="D6">
-        <v>0.04764606248413372</v>
+        <v>0.02222618969229018</v>
       </c>
       <c r="E6">
-        <v>1.01936787212081</v>
+        <v>0.316100285483131</v>
       </c>
       <c r="F6">
-        <v>0.406146813740456</v>
+        <v>0.6276841548369489</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2394747535847372</v>
+        <v>0.4831202215763213</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9321986928390515</v>
+        <v>0.287263962931803</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.208229853785568</v>
+        <v>2.145645996966479</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8435032883039355</v>
+        <v>0.2749960647591365</v>
       </c>
       <c r="C7">
-        <v>0.1765693750749477</v>
+        <v>0.05649992514496205</v>
       </c>
       <c r="D7">
-        <v>0.04932808213790452</v>
+        <v>0.02282256274047967</v>
       </c>
       <c r="E7">
-        <v>1.07415077414349</v>
+        <v>0.3313734793941308</v>
       </c>
       <c r="F7">
-        <v>0.4130868726443211</v>
+        <v>0.6276358576039129</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.237987943749431</v>
+        <v>0.4813523663823851</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9769588229763713</v>
+        <v>0.3011926418602684</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.217299067592492</v>
+        <v>2.141577310738967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.017078338857658</v>
+        <v>0.3284804428746781</v>
       </c>
       <c r="C8">
-        <v>0.2095314506259314</v>
+        <v>0.0668591391214477</v>
       </c>
       <c r="D8">
-        <v>0.05671915988883569</v>
+        <v>0.02543320349975886</v>
       </c>
       <c r="E8">
-        <v>1.319974573271779</v>
+        <v>0.3989451711657068</v>
       </c>
       <c r="F8">
-        <v>0.4461352522651509</v>
+        <v>0.628452366240829</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2329937385765746</v>
+        <v>0.4742571391747639</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.174670275025022</v>
+        <v>0.3624921648033137</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.265210916659612</v>
+        <v>2.127008269994889</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.359063943063745</v>
+        <v>0.4330196250673737</v>
       </c>
       <c r="C9">
-        <v>0.274605680929767</v>
+        <v>0.08696300939867285</v>
       </c>
       <c r="D9">
-        <v>0.07111639128886083</v>
+        <v>0.03047489210481302</v>
       </c>
       <c r="E9">
-        <v>1.822294790034505</v>
+        <v>0.5321920092804504</v>
       </c>
       <c r="F9">
-        <v>0.5209569580803688</v>
+        <v>0.6337695595010473</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2294844634938542</v>
+        <v>0.4628902603821636</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.564316285662926</v>
+        <v>0.4820801107834711</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.391512250121906</v>
+        <v>2.11066090298516</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.612381127515278</v>
+        <v>0.5095990029419966</v>
       </c>
       <c r="C10">
-        <v>0.3229641541441595</v>
+        <v>0.1016050693608008</v>
       </c>
       <c r="D10">
-        <v>0.08165333609021275</v>
+        <v>0.03413008150782559</v>
       </c>
       <c r="E10">
-        <v>2.209748141276279</v>
+        <v>0.6306550029007383</v>
       </c>
       <c r="F10">
-        <v>0.5833830622761198</v>
+        <v>0.639957876948877</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2314097837064537</v>
+        <v>0.4561006330277664</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.85309246827731</v>
+        <v>0.5695492469237422</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.508153758027333</v>
+        <v>2.106157102289757</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.728336261271778</v>
+        <v>0.5443850744516681</v>
       </c>
       <c r="C11">
-        <v>0.345153669425514</v>
+        <v>0.1082383929676212</v>
       </c>
       <c r="D11">
-        <v>0.08644258834758034</v>
+        <v>0.03578199605681931</v>
       </c>
       <c r="E11">
-        <v>2.391552916646347</v>
+        <v>0.6755970522737158</v>
       </c>
       <c r="F11">
-        <v>0.6137311829266281</v>
+        <v>0.6432722012526071</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2334279239907815</v>
+        <v>0.4533528994753198</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.985335942249833</v>
+        <v>0.6092537054501292</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.567408790004919</v>
+        <v>2.105750366634055</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.77237314228401</v>
+        <v>0.5575500160009597</v>
       </c>
       <c r="C12">
-        <v>0.3535902859390205</v>
+        <v>0.1107462947907436</v>
       </c>
       <c r="D12">
-        <v>0.0882559674652299</v>
+        <v>0.03640594065365832</v>
       </c>
       <c r="E12">
-        <v>2.461343519011123</v>
+        <v>0.6926390146231398</v>
       </c>
       <c r="F12">
-        <v>0.6255340081426795</v>
+        <v>0.6445993015316915</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2343715730389953</v>
+        <v>0.4523615882685732</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.035569169114098</v>
+        <v>0.624276038997948</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.590831486664342</v>
+        <v>2.105833419773148</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.762882953530635</v>
+        <v>0.5547150655617372</v>
       </c>
       <c r="C13">
-        <v>0.351771690086764</v>
+        <v>0.1102063516823364</v>
       </c>
       <c r="D13">
-        <v>0.08786542663532515</v>
+        <v>0.03627163478750361</v>
       </c>
       <c r="E13">
-        <v>2.446268290551018</v>
+        <v>0.6889676557752011</v>
       </c>
       <c r="F13">
-        <v>0.6229777305752293</v>
+        <v>0.6443102788797432</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2341601047941815</v>
+        <v>0.452572894090256</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.02474313149466</v>
+        <v>0.6210412925493358</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.585741637845842</v>
+        <v>2.105804973691619</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.731956509098126</v>
+        <v>0.5454683214058207</v>
       </c>
       <c r="C14">
-        <v>0.3458470354102019</v>
+        <v>0.1084447998888436</v>
       </c>
       <c r="D14">
-        <v>0.08659177799579254</v>
+        <v>0.03583336063678644</v>
       </c>
       <c r="E14">
-        <v>2.397274782398796</v>
+        <v>0.6769986262960401</v>
       </c>
       <c r="F14">
-        <v>0.614695799338854</v>
+        <v>0.6433799374226723</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2335018707620264</v>
+        <v>0.453270356746259</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.989465365545726</v>
+        <v>0.610489863266821</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.569315499460117</v>
+        <v>2.105752442689777</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.713030474429189</v>
+        <v>0.5398033927484107</v>
       </c>
       <c r="C15">
-        <v>0.3422226357398017</v>
+        <v>0.1073652769509863</v>
       </c>
       <c r="D15">
-        <v>0.08581161629897593</v>
+        <v>0.0355646955850375</v>
       </c>
       <c r="E15">
-        <v>2.367392599407978</v>
+        <v>0.6696703463099993</v>
       </c>
       <c r="F15">
-        <v>0.6096642783531081</v>
+        <v>0.6428194652370678</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.233122523673309</v>
+        <v>0.4537039847020523</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.967877884027786</v>
+        <v>0.6040251138251449</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.559385099241609</v>
+        <v>2.105751168284826</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.604819644442557</v>
+        <v>0.5073245918154612</v>
       </c>
       <c r="C16">
-        <v>0.321518397237412</v>
+        <v>0.1011710099078869</v>
       </c>
       <c r="D16">
-        <v>0.08134029693110989</v>
+        <v>0.03402190330888999</v>
       </c>
       <c r="E16">
-        <v>2.197990606371675</v>
+        <v>0.6277211131709066</v>
       </c>
       <c r="F16">
-        <v>0.5814415035212974</v>
+        <v>0.6397513451047416</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2313021440213987</v>
+        <v>0.4562870786100106</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.844470145479562</v>
+        <v>0.5669526948046837</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.504413727676621</v>
+        <v>2.106216806973492</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.538636319530696</v>
+        <v>0.4873866239896927</v>
       </c>
       <c r="C17">
-        <v>0.3088703204763306</v>
+        <v>0.097363967834184</v>
       </c>
       <c r="D17">
-        <v>0.07859650496863679</v>
+        <v>0.03307264324255499</v>
       </c>
       <c r="E17">
-        <v>2.095588467760891</v>
+        <v>0.6020264356574216</v>
       </c>
       <c r="F17">
-        <v>0.5646478676890681</v>
+        <v>0.6379971943105502</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2304883277570511</v>
+        <v>0.4579591603171949</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.769008237626736</v>
+        <v>0.5441876184391106</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.472340762786416</v>
+        <v>2.106923707552056</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.500635633390772</v>
+        <v>0.4759141336213872</v>
       </c>
       <c r="C18">
-        <v>0.3016130332851219</v>
+        <v>0.09517167971392837</v>
       </c>
       <c r="D18">
-        <v>0.07701794190185041</v>
+        <v>0.03252563509580852</v>
       </c>
       <c r="E18">
-        <v>2.037202078336364</v>
+        <v>0.5872616221732301</v>
       </c>
       <c r="F18">
-        <v>0.5551702058464656</v>
+        <v>0.6370352279283651</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2301267750926712</v>
+        <v>0.4589529743305718</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.725685244591034</v>
+        <v>0.5310857162882598</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.454470183444329</v>
+        <v>2.107484800232072</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.48777994131359</v>
+        <v>0.4720289556434238</v>
       </c>
       <c r="C19">
-        <v>0.2991586694088255</v>
+        <v>0.09442896736862849</v>
       </c>
       <c r="D19">
-        <v>0.07648338686355771</v>
+        <v>0.0323402537526718</v>
       </c>
       <c r="E19">
-        <v>2.017517306525903</v>
+        <v>0.5822648774036026</v>
       </c>
       <c r="F19">
-        <v>0.5519915453465813</v>
+        <v>0.636717583009542</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.230022217111383</v>
+        <v>0.4592949665982218</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.711029838493232</v>
+        <v>0.5266482749543684</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.448515899612858</v>
+        <v>2.107701283632878</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.545674630521546</v>
+        <v>0.4895095450594908</v>
       </c>
       <c r="C20">
-        <v>0.3102148686694193</v>
+        <v>0.0977695011667663</v>
       </c>
       <c r="D20">
-        <v>0.07888862576515265</v>
+        <v>0.03317379933214681</v>
       </c>
       <c r="E20">
-        <v>2.106435290189708</v>
+        <v>0.6047602078498784</v>
       </c>
       <c r="F20">
-        <v>0.5664165746378487</v>
+        <v>0.6381790631378053</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2305638287255576</v>
+        <v>0.4577778432667827</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.7770327314702</v>
+        <v>0.5466118350788349</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.475694625033356</v>
+        <v>2.106832459512731</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.741036703489925</v>
+        <v>0.5481845301332271</v>
       </c>
       <c r="C21">
-        <v>0.3475862742506308</v>
+        <v>0.1089623191431031</v>
       </c>
       <c r="D21">
-        <v>0.08696588190408505</v>
+        <v>0.03596213610399701</v>
       </c>
       <c r="E21">
-        <v>2.411638450192783</v>
+        <v>0.6805135720823756</v>
       </c>
       <c r="F21">
-        <v>0.6171197173752034</v>
+        <v>0.6436512441937623</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2336902126840172</v>
+        <v>0.4530641585026842</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.999822832542975</v>
+        <v>0.6135894279109664</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.574112757200794</v>
+        <v>2.105761430600836</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.869471162011422</v>
+        <v>0.586486369136594</v>
       </c>
       <c r="C22">
-        <v>0.3722119392090519</v>
+        <v>0.1162541706304694</v>
       </c>
       <c r="D22">
-        <v>0.09224383191658347</v>
+        <v>0.03777513364497764</v>
       </c>
       <c r="E22">
-        <v>2.616697217271948</v>
+        <v>0.7301598754764598</v>
       </c>
       <c r="F22">
-        <v>0.6520839978804389</v>
+        <v>0.6476476368203947</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2367873902998916</v>
+        <v>0.4502703254260823</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.146351149329803</v>
+        <v>0.6572878066461669</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.644220839321889</v>
+        <v>2.106443748055881</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.800845840844431</v>
+        <v>0.5660483181394795</v>
       </c>
       <c r="C23">
-        <v>0.3590480146539221</v>
+        <v>0.1123645208458299</v>
       </c>
       <c r="D23">
-        <v>0.08942684844434723</v>
+        <v>0.03680837046060503</v>
       </c>
       <c r="E23">
-        <v>2.50668835565429</v>
+        <v>0.7036495962146603</v>
       </c>
       <c r="F23">
-        <v>0.6332450030422763</v>
+        <v>0.6454761739146306</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2350325477525956</v>
+        <v>0.4517351437527459</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.068051396893793</v>
+        <v>0.633972238149056</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.606240139868902</v>
+        <v>2.105952788319257</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.542492459293413</v>
+        <v>0.4885498032003284</v>
       </c>
       <c r="C24">
-        <v>0.3096069544923523</v>
+        <v>0.09758617066174224</v>
       </c>
       <c r="D24">
-        <v>0.07875656147128041</v>
+        <v>0.03312807060387257</v>
       </c>
       <c r="E24">
-        <v>2.10152993896584</v>
+        <v>0.6035242465564465</v>
       </c>
       <c r="F24">
-        <v>0.5656163924655786</v>
+        <v>0.6380966953545339</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2305293647000859</v>
+        <v>0.4578597154419271</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.773404669781883</v>
+        <v>0.5455158901696109</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.474176579812848</v>
+        <v>2.106873230967182</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.266269815838399</v>
+        <v>0.4047774681255589</v>
       </c>
       <c r="C25">
-        <v>0.2569271617443576</v>
+        <v>0.08154691188582319</v>
       </c>
       <c r="D25">
-        <v>0.06723012614432378</v>
+        <v>0.02911946681465594</v>
       </c>
       <c r="E25">
-        <v>1.683650221058613</v>
+        <v>0.4960541509791057</v>
       </c>
       <c r="F25">
-        <v>0.4995108681944416</v>
+        <v>0.631931598301982</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2296948848859302</v>
+        <v>0.465691717167104</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.458569942910628</v>
+        <v>0.4497962708934722</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.353475982975823</v>
+        <v>2.113769074292236</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3429493964259791</v>
+        <v>1.064180168887333</v>
       </c>
       <c r="C2">
-        <v>0.06965172002792031</v>
+        <v>0.2184824331658177</v>
       </c>
       <c r="D2">
-        <v>0.0261353511007556</v>
+        <v>0.05871461369919473</v>
       </c>
       <c r="E2">
-        <v>0.4172994359769149</v>
+        <v>1.387749502022743</v>
       </c>
       <c r="F2">
-        <v>0.6289244698072523</v>
+        <v>0.4557210187832794</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.472506710197468</v>
+        <v>0.2320427430941159</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3790598273342312</v>
+        <v>1.228325938342721</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.123885881344364</v>
+        <v>1.280240133294939</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3009604902049148</v>
+        <v>0.9276680820630361</v>
       </c>
       <c r="C3">
-        <v>0.06153662247182012</v>
+        <v>0.1925483666823169</v>
       </c>
       <c r="D3">
-        <v>0.02409310344395266</v>
+        <v>0.05291954097258156</v>
       </c>
       <c r="E3">
-        <v>0.3641208024745879</v>
+        <v>1.192570688491458</v>
       </c>
       <c r="F3">
-        <v>0.6278367374468559</v>
+        <v>0.4286450656629341</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4777763309126399</v>
+        <v>0.2352603042514758</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3309631340928831</v>
+        <v>1.072825014835473</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.133867296146576</v>
+        <v>1.238999812584041</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2751380727284243</v>
+        <v>0.8439631575184876</v>
       </c>
       <c r="C4">
-        <v>0.05652751646485399</v>
+        <v>0.1766566667103007</v>
       </c>
       <c r="D4">
-        <v>0.02282952962735152</v>
+        <v>0.0493477459897349</v>
       </c>
       <c r="E4">
-        <v>0.3315522843216456</v>
+        <v>1.074793791895516</v>
       </c>
       <c r="F4">
-        <v>0.6276358551096237</v>
+        <v>0.4131693483325449</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4813320661462512</v>
+        <v>0.2379713748037737</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3013555354349648</v>
+        <v>0.9774826233396823</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.141531551795708</v>
+        <v>1.217409331296025</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2646054256214541</v>
+        <v>0.8098673664679552</v>
       </c>
       <c r="C5">
-        <v>0.05447967130379539</v>
+        <v>0.1701850451214142</v>
       </c>
       <c r="D5">
-        <v>0.02231222978161185</v>
+        <v>0.04788858075841063</v>
       </c>
       <c r="E5">
-        <v>0.3182997360578526</v>
+        <v>1.027239719045014</v>
       </c>
       <c r="F5">
-        <v>0.6276712106583346</v>
+        <v>0.4071332855398069</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4828614232459891</v>
+        <v>0.2392517946594275</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2892715992569777</v>
+        <v>0.9386468044155549</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.145040146667014</v>
+        <v>1.209492735018557</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2628559110286233</v>
+        <v>0.8042062791835463</v>
       </c>
       <c r="C6">
-        <v>0.05413923129175657</v>
+        <v>0.1691105999137221</v>
       </c>
       <c r="D6">
-        <v>0.02222618969229018</v>
+        <v>0.0476460624842403</v>
       </c>
       <c r="E6">
-        <v>0.316100285483131</v>
+        <v>1.01936787212081</v>
       </c>
       <c r="F6">
-        <v>0.6276841548369489</v>
+        <v>0.4061468137404773</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4831202215763213</v>
+        <v>0.2394747535847266</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.287263962931803</v>
+        <v>0.9321986928391084</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.145645996966479</v>
+        <v>1.208229853785511</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2749960647591365</v>
+        <v>0.8435032883038787</v>
       </c>
       <c r="C7">
-        <v>0.05649992514496205</v>
+        <v>0.176569375074763</v>
       </c>
       <c r="D7">
-        <v>0.02282256274047967</v>
+        <v>0.04932808213793294</v>
       </c>
       <c r="E7">
-        <v>0.3313734793941308</v>
+        <v>1.074150774143476</v>
       </c>
       <c r="F7">
-        <v>0.6276358576039129</v>
+        <v>0.4130868726443353</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4813523663823851</v>
+        <v>0.237987943749431</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3011926418602684</v>
+        <v>0.9769588229763428</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.141577310738967</v>
+        <v>1.217299067592478</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3284804428746781</v>
+        <v>1.017078338857544</v>
       </c>
       <c r="C8">
-        <v>0.0668591391214477</v>
+        <v>0.2095314506256756</v>
       </c>
       <c r="D8">
-        <v>0.02543320349975886</v>
+        <v>0.05671915988875753</v>
       </c>
       <c r="E8">
-        <v>0.3989451711657068</v>
+        <v>1.319974573271807</v>
       </c>
       <c r="F8">
-        <v>0.628452366240829</v>
+        <v>0.4461352522651438</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4742571391747639</v>
+        <v>0.2329937385765781</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3624921648033137</v>
+        <v>1.174670275024994</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.127008269994889</v>
+        <v>1.265210916659612</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4330196250673737</v>
+        <v>1.359063943063774</v>
       </c>
       <c r="C9">
-        <v>0.08696300939867285</v>
+        <v>0.2746056809299802</v>
       </c>
       <c r="D9">
-        <v>0.03047489210481302</v>
+        <v>0.07111639128886083</v>
       </c>
       <c r="E9">
-        <v>0.5321920092804504</v>
+        <v>1.822294790034519</v>
       </c>
       <c r="F9">
-        <v>0.6337695595010473</v>
+        <v>0.5209569580803617</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4628902603821636</v>
+        <v>0.2294844634938507</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4820801107834711</v>
+        <v>1.564316285663011</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.11066090298516</v>
+        <v>1.391512250121934</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5095990029419966</v>
+        <v>1.612381127515363</v>
       </c>
       <c r="C10">
-        <v>0.1016050693608008</v>
+        <v>0.3229641541442447</v>
       </c>
       <c r="D10">
-        <v>0.03413008150782559</v>
+        <v>0.08165333609033354</v>
       </c>
       <c r="E10">
-        <v>0.6306550029007383</v>
+        <v>2.209748141276293</v>
       </c>
       <c r="F10">
-        <v>0.639957876948877</v>
+        <v>0.5833830622761269</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4561006330277664</v>
+        <v>0.2314097837064466</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5695492469237422</v>
+        <v>1.853092468277254</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.106157102289757</v>
+        <v>1.508153758027305</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5443850744516681</v>
+        <v>1.728336261271892</v>
       </c>
       <c r="C11">
-        <v>0.1082383929676212</v>
+        <v>0.345153669425514</v>
       </c>
       <c r="D11">
-        <v>0.03578199605681931</v>
+        <v>0.08644258834757323</v>
       </c>
       <c r="E11">
-        <v>0.6755970522737158</v>
+        <v>2.391552916646305</v>
       </c>
       <c r="F11">
-        <v>0.6432722012526071</v>
+        <v>0.6137311829266423</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4533528994753198</v>
+        <v>0.233427923990785</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6092537054501292</v>
+        <v>1.985335942249662</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.105750366634055</v>
+        <v>1.56740879000489</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5575500160009597</v>
+        <v>1.772373142283953</v>
       </c>
       <c r="C12">
-        <v>0.1107462947907436</v>
+        <v>0.3535902859386795</v>
       </c>
       <c r="D12">
-        <v>0.03640594065365832</v>
+        <v>0.08825596746505227</v>
       </c>
       <c r="E12">
-        <v>0.6926390146231398</v>
+        <v>2.461343519011081</v>
       </c>
       <c r="F12">
-        <v>0.6445993015316915</v>
+        <v>0.6255340081426937</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4523615882685732</v>
+        <v>0.2343715730389775</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.624276038997948</v>
+        <v>2.035569169113927</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.105833419773148</v>
+        <v>1.590831486664342</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5547150655617372</v>
+        <v>1.762882953530664</v>
       </c>
       <c r="C13">
-        <v>0.1102063516823364</v>
+        <v>0.3517716900869914</v>
       </c>
       <c r="D13">
-        <v>0.03627163478750361</v>
+        <v>0.08786542663526831</v>
       </c>
       <c r="E13">
-        <v>0.6889676557752011</v>
+        <v>2.446268290551018</v>
       </c>
       <c r="F13">
-        <v>0.6443102788797432</v>
+        <v>0.6229777305752293</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.452572894090256</v>
+        <v>0.2341601047941992</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6210412925493358</v>
+        <v>2.024743131494546</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.105804973691619</v>
+        <v>1.585741637845757</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5454683214058207</v>
+        <v>1.731956509098097</v>
       </c>
       <c r="C14">
-        <v>0.1084447998888436</v>
+        <v>0.3458470354101451</v>
       </c>
       <c r="D14">
-        <v>0.03583336063678644</v>
+        <v>0.08659177799578543</v>
       </c>
       <c r="E14">
-        <v>0.6769986262960401</v>
+        <v>2.397274782398796</v>
       </c>
       <c r="F14">
-        <v>0.6433799374226723</v>
+        <v>0.614695799338854</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.453270356746259</v>
+        <v>0.2335018707620264</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.610489863266821</v>
+        <v>1.989465365545726</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.105752442689777</v>
+        <v>1.569315499460117</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5398033927484107</v>
+        <v>1.713030474429132</v>
       </c>
       <c r="C15">
-        <v>0.1073652769509863</v>
+        <v>0.3422226357403702</v>
       </c>
       <c r="D15">
-        <v>0.0355646955850375</v>
+        <v>0.08581161629874856</v>
       </c>
       <c r="E15">
-        <v>0.6696703463099993</v>
+        <v>2.367392599407964</v>
       </c>
       <c r="F15">
-        <v>0.6428194652370678</v>
+        <v>0.6096642783531223</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4537039847020523</v>
+        <v>0.2331225236733125</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6040251138251449</v>
+        <v>1.967877884027615</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.105751168284826</v>
+        <v>1.559385099241524</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5073245918154612</v>
+        <v>1.604819644442529</v>
       </c>
       <c r="C16">
-        <v>0.1011710099078869</v>
+        <v>0.3215183972376678</v>
       </c>
       <c r="D16">
-        <v>0.03402190330888999</v>
+        <v>0.08134029693103884</v>
       </c>
       <c r="E16">
-        <v>0.6277211131709066</v>
+        <v>2.19799060637169</v>
       </c>
       <c r="F16">
-        <v>0.6397513451047416</v>
+        <v>0.5814415035213116</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4562870786100106</v>
+        <v>0.2313021440214129</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5669526948046837</v>
+        <v>1.84447014547959</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.106216806973492</v>
+        <v>1.504413727676621</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4873866239896927</v>
+        <v>1.538636319530639</v>
       </c>
       <c r="C17">
-        <v>0.097363967834184</v>
+        <v>0.3088703204765295</v>
       </c>
       <c r="D17">
-        <v>0.03307264324255499</v>
+        <v>0.07859650496874337</v>
       </c>
       <c r="E17">
-        <v>0.6020264356574216</v>
+        <v>2.095588467760919</v>
       </c>
       <c r="F17">
-        <v>0.6379971943105502</v>
+        <v>0.5646478676890609</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4579591603171949</v>
+        <v>0.2304883277570546</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5441876184391106</v>
+        <v>1.769008237626764</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.106923707552056</v>
+        <v>1.472340762786416</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4759141336213872</v>
+        <v>1.500635633390772</v>
       </c>
       <c r="C18">
-        <v>0.09517167971392837</v>
+        <v>0.3016130332854345</v>
       </c>
       <c r="D18">
-        <v>0.03252563509580852</v>
+        <v>0.07701794190202804</v>
       </c>
       <c r="E18">
-        <v>0.5872616221732301</v>
+        <v>2.03720207833635</v>
       </c>
       <c r="F18">
-        <v>0.6370352279283651</v>
+        <v>0.5551702058464727</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4589529743305718</v>
+        <v>0.2301267750926783</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5310857162882598</v>
+        <v>1.725685244591148</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.107484800232072</v>
+        <v>1.4544701834443</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4720289556434238</v>
+        <v>1.487779941313704</v>
       </c>
       <c r="C19">
-        <v>0.09442896736862849</v>
+        <v>0.2991586694088255</v>
       </c>
       <c r="D19">
-        <v>0.0323402537526718</v>
+        <v>0.07648338686344403</v>
       </c>
       <c r="E19">
-        <v>0.5822648774036026</v>
+        <v>2.017517306525875</v>
       </c>
       <c r="F19">
-        <v>0.636717583009542</v>
+        <v>0.5519915453465671</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4592949665982218</v>
+        <v>0.2300222171113759</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5266482749543684</v>
+        <v>1.711029838493175</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.107701283632878</v>
+        <v>1.448515899612772</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4895095450594908</v>
+        <v>1.545674630521518</v>
       </c>
       <c r="C20">
-        <v>0.0977695011667663</v>
+        <v>0.3102148686693624</v>
       </c>
       <c r="D20">
-        <v>0.03317379933214681</v>
+        <v>0.07888862576486844</v>
       </c>
       <c r="E20">
-        <v>0.6047602078498784</v>
+        <v>2.106435290189694</v>
       </c>
       <c r="F20">
-        <v>0.6381790631378053</v>
+        <v>0.5664165746378487</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4577778432667827</v>
+        <v>0.2305638287255789</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5466118350788349</v>
+        <v>1.77703273147003</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.106832459512731</v>
+        <v>1.475694625033356</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5481845301332271</v>
+        <v>1.741036703489982</v>
       </c>
       <c r="C21">
-        <v>0.1089623191431031</v>
+        <v>0.3475862742508014</v>
       </c>
       <c r="D21">
-        <v>0.03596213610399701</v>
+        <v>0.08696588190390031</v>
       </c>
       <c r="E21">
-        <v>0.6805135720823756</v>
+        <v>2.411638450192811</v>
       </c>
       <c r="F21">
-        <v>0.6436512441937623</v>
+        <v>0.6171197173752034</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4530641585026842</v>
+        <v>0.2336902126840101</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6135894279109664</v>
+        <v>1.999822832542975</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.105761430600836</v>
+        <v>1.574112757200794</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.586486369136594</v>
+        <v>1.869471162011479</v>
       </c>
       <c r="C22">
-        <v>0.1162541706304694</v>
+        <v>0.3722119392089951</v>
       </c>
       <c r="D22">
-        <v>0.03777513364497764</v>
+        <v>0.09224383191651953</v>
       </c>
       <c r="E22">
-        <v>0.7301598754764598</v>
+        <v>2.616697217271948</v>
       </c>
       <c r="F22">
-        <v>0.6476476368203947</v>
+        <v>0.6520839978804531</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4502703254260823</v>
+        <v>0.2367873902999058</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6572878066461669</v>
+        <v>2.146351149329831</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.106443748055881</v>
+        <v>1.644220839321804</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5660483181394795</v>
+        <v>1.800845840844431</v>
       </c>
       <c r="C23">
-        <v>0.1123645208458299</v>
+        <v>0.3590480146536379</v>
       </c>
       <c r="D23">
-        <v>0.03680837046060503</v>
+        <v>0.08942684844438276</v>
       </c>
       <c r="E23">
-        <v>0.7036495962146603</v>
+        <v>2.50668835565429</v>
       </c>
       <c r="F23">
-        <v>0.6454761739146306</v>
+        <v>0.6332450030422763</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4517351437527459</v>
+        <v>0.2350325477525921</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.633972238149056</v>
+        <v>2.068051396893708</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.105952788319257</v>
+        <v>1.60624013986893</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4885498032003284</v>
+        <v>1.5424924592933</v>
       </c>
       <c r="C24">
-        <v>0.09758617066174224</v>
+        <v>0.3096069544919544</v>
       </c>
       <c r="D24">
-        <v>0.03312807060387257</v>
+        <v>0.07875656147121646</v>
       </c>
       <c r="E24">
-        <v>0.6035242465564465</v>
+        <v>2.10152993896584</v>
       </c>
       <c r="F24">
-        <v>0.6380966953545339</v>
+        <v>0.565616392465607</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4578597154419271</v>
+        <v>0.230529364700093</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5455158901696109</v>
+        <v>1.773404669781968</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.106873230967182</v>
+        <v>1.474176579812905</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4047774681255589</v>
+        <v>1.266269815838513</v>
       </c>
       <c r="C25">
-        <v>0.08154691188582319</v>
+        <v>0.256927161744045</v>
       </c>
       <c r="D25">
-        <v>0.02911946681465594</v>
+        <v>0.06723012614444457</v>
       </c>
       <c r="E25">
-        <v>0.4960541509791057</v>
+        <v>1.683650221058613</v>
       </c>
       <c r="F25">
-        <v>0.631931598301982</v>
+        <v>0.4995108681944345</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.465691717167104</v>
+        <v>0.2296948848859159</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4497962708934722</v>
+        <v>1.458569942910628</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.113769074292236</v>
+        <v>1.353475982975823</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.064180168887333</v>
+        <v>0.9157414125673142</v>
       </c>
       <c r="C2">
-        <v>0.2184824331658177</v>
+        <v>0.1595946342623833</v>
       </c>
       <c r="D2">
-        <v>0.05871461369919473</v>
+        <v>0.08338882040522577</v>
       </c>
       <c r="E2">
-        <v>1.387749502022743</v>
+        <v>0.05823797035948708</v>
       </c>
       <c r="F2">
-        <v>0.4557210187832794</v>
+        <v>0.5966366312036513</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.008386013116621405</v>
       </c>
       <c r="I2">
-        <v>0.2320427430941159</v>
+        <v>0.009261886112629458</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>1.228325938342721</v>
+        <v>0.4813970243578112</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8637482067664735</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.161874621975862</v>
       </c>
       <c r="O2">
-        <v>1.280240133294939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2021533595327902</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.910814571904311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9276680820630361</v>
+        <v>0.7975776704670068</v>
       </c>
       <c r="C3">
-        <v>0.1925483666823169</v>
+        <v>0.1496667226100072</v>
       </c>
       <c r="D3">
-        <v>0.05291954097258156</v>
+        <v>0.07625427091771542</v>
       </c>
       <c r="E3">
-        <v>1.192570688491458</v>
+        <v>0.05487386193263255</v>
       </c>
       <c r="F3">
-        <v>0.4286450656629341</v>
+        <v>0.5747649768895684</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01064567959546488</v>
       </c>
       <c r="I3">
-        <v>0.2352603042514758</v>
+        <v>0.0116491928875524</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>1.072825014835473</v>
+        <v>0.4803449368904147</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7565893375575001</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1443685127928873</v>
       </c>
       <c r="O3">
-        <v>1.238999812584041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.176479218004939</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.880516703929274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8439631575184876</v>
+        <v>0.7248125324729813</v>
       </c>
       <c r="C4">
-        <v>0.1766566667103007</v>
+        <v>0.1435937625574937</v>
       </c>
       <c r="D4">
-        <v>0.0493477459897349</v>
+        <v>0.07187113472411255</v>
       </c>
       <c r="E4">
-        <v>1.074793791895516</v>
+        <v>0.0527762163289669</v>
       </c>
       <c r="F4">
-        <v>0.4131693483325449</v>
+        <v>0.5617717170165193</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01222490135615185</v>
       </c>
       <c r="I4">
-        <v>0.2379713748037737</v>
+        <v>0.01334953877140199</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.9774826233396823</v>
+        <v>0.479889183007657</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6907931863071326</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1336340648971301</v>
       </c>
       <c r="O4">
-        <v>1.217409331296025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1606983349326789</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.863178308126507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8098673664679552</v>
+        <v>0.694816281069734</v>
       </c>
       <c r="C5">
-        <v>0.1701850451214142</v>
+        <v>0.141302201607246</v>
       </c>
       <c r="D5">
-        <v>0.04788858075841063</v>
+        <v>0.07015284877794414</v>
       </c>
       <c r="E5">
-        <v>1.027239719045014</v>
+        <v>0.05186898236985371</v>
       </c>
       <c r="F5">
-        <v>0.4071332855398069</v>
+        <v>0.5560005573222426</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0129196182704527</v>
       </c>
       <c r="I5">
-        <v>0.2392517946594275</v>
+        <v>0.01418679762771857</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.9386468044155549</v>
+        <v>0.4792478093920991</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6642861664794992</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1293150305329007</v>
       </c>
       <c r="O5">
-        <v>1.209492735018557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.154246090153034</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.854510608994019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8042062791835463</v>
+        <v>0.6894799969278438</v>
       </c>
       <c r="C6">
-        <v>0.1691105999137221</v>
+        <v>0.1411431277837423</v>
       </c>
       <c r="D6">
-        <v>0.0476460624842403</v>
+        <v>0.06995217868466597</v>
       </c>
       <c r="E6">
-        <v>1.01936787212081</v>
+        <v>0.05166391945475013</v>
       </c>
       <c r="F6">
-        <v>0.4061468137404773</v>
+        <v>0.554338004377783</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01304337149155156</v>
       </c>
       <c r="I6">
-        <v>0.2394747535847266</v>
+        <v>0.01444319817523443</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.9321986928391084</v>
+        <v>0.4785310187509317</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6602652824158071</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1286628020225677</v>
       </c>
       <c r="O6">
-        <v>1.208229853785511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1531545069174669</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.850757805805529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8435032883038787</v>
+        <v>0.7234434120395576</v>
       </c>
       <c r="C7">
-        <v>0.176569375074763</v>
+        <v>0.1441693214085618</v>
       </c>
       <c r="D7">
-        <v>0.04932808213793294</v>
+        <v>0.0720805021256794</v>
       </c>
       <c r="E7">
-        <v>1.074150774143476</v>
+        <v>0.05261689796383884</v>
       </c>
       <c r="F7">
-        <v>0.4130868726443353</v>
+        <v>0.5597543760697548</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01224862756648583</v>
       </c>
       <c r="I7">
-        <v>0.237987943749431</v>
+        <v>0.01365498502523277</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.9769588229763428</v>
+        <v>0.4782089133041971</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6914797793977669</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1337535305870645</v>
       </c>
       <c r="O7">
-        <v>1.217299067592478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1605568300562261</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.856700907907651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.017078338857544</v>
+        <v>0.8737490167591773</v>
       </c>
       <c r="C8">
-        <v>0.2095314506256756</v>
+        <v>0.1569822911794247</v>
       </c>
       <c r="D8">
-        <v>0.05671915988875753</v>
+        <v>0.08124192518847195</v>
       </c>
       <c r="E8">
-        <v>1.319974573271807</v>
+        <v>0.0568905987322772</v>
       </c>
       <c r="F8">
-        <v>0.4461352522651438</v>
+        <v>0.5864446127007028</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.009139913555239867</v>
       </c>
       <c r="I8">
-        <v>0.2329937385765781</v>
+        <v>0.01038827593873215</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>1.174670275024994</v>
+        <v>0.4788004290680128</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8281921911882648</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.156072996460459</v>
       </c>
       <c r="O8">
-        <v>1.265210916659612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.193230407014795</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.891735312471354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.359063943063774</v>
+        <v>1.168729777074674</v>
       </c>
       <c r="C9">
-        <v>0.2746056809299802</v>
+        <v>0.1812835309698002</v>
       </c>
       <c r="D9">
-        <v>0.07111639128886083</v>
+        <v>0.09878981803977638</v>
       </c>
       <c r="E9">
-        <v>1.822294790034519</v>
+        <v>0.0652908233627798</v>
       </c>
       <c r="F9">
-        <v>0.5209569580803617</v>
+        <v>0.645927125617483</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.004624010527239597</v>
       </c>
       <c r="I9">
-        <v>0.2294844634938507</v>
+        <v>0.00548696162653517</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.564316285663011</v>
+        <v>0.4844941876395303</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.09466780169106</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1996888968983512</v>
       </c>
       <c r="O9">
-        <v>1.391512250121934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.257318064847734</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.982330466695032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.612381127515363</v>
+        <v>1.383044240307356</v>
       </c>
       <c r="C10">
-        <v>0.3229641541442447</v>
+        <v>0.2019788467968056</v>
       </c>
       <c r="D10">
-        <v>0.08165333609033354</v>
+        <v>0.1130786340362135</v>
       </c>
       <c r="E10">
-        <v>2.209748141276293</v>
+        <v>0.06836973495263443</v>
       </c>
       <c r="F10">
-        <v>0.5833830622761269</v>
+        <v>0.681927226159857</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002699770164886761</v>
       </c>
       <c r="I10">
-        <v>0.2314097837064466</v>
+        <v>0.003388610198309827</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.853092468277254</v>
+        <v>0.4816341146875409</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.296869460072571</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2205663651842258</v>
       </c>
       <c r="O10">
-        <v>1.508153758027305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2988920564812929</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2.022913964021171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.728336261271892</v>
+        <v>1.467863724110657</v>
       </c>
       <c r="C11">
-        <v>0.345153669425514</v>
+        <v>0.2347446780599398</v>
       </c>
       <c r="D11">
-        <v>0.08644258834757323</v>
+        <v>0.1315276042148525</v>
       </c>
       <c r="E11">
-        <v>2.391552916646305</v>
+        <v>0.05024343571646384</v>
       </c>
       <c r="F11">
-        <v>0.6137311829266423</v>
+        <v>0.616892406255559</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02132648869189069</v>
       </c>
       <c r="I11">
-        <v>0.233427923990785</v>
+        <v>0.003451137731307341</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.985335942249662</v>
+        <v>0.4187912460158287</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.43876102975355</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1427143556447987</v>
       </c>
       <c r="O11">
-        <v>1.56740879000489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2710109758665098</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.781833181959172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.772373142283953</v>
+        <v>1.495628317776692</v>
       </c>
       <c r="C12">
-        <v>0.3535902859386795</v>
+        <v>0.2606567348436357</v>
       </c>
       <c r="D12">
-        <v>0.08825596746505227</v>
+        <v>0.1447417387232122</v>
       </c>
       <c r="E12">
-        <v>2.461343519011081</v>
+        <v>0.04222043958999167</v>
       </c>
       <c r="F12">
-        <v>0.6255340081426937</v>
+        <v>0.5593525992668447</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06020020855145702</v>
       </c>
       <c r="I12">
-        <v>0.2343715730389775</v>
+        <v>0.003366746611717986</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>2.035569169113927</v>
+        <v>0.3734388859794713</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.51655246710456</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08820998579319195</v>
       </c>
       <c r="O12">
-        <v>1.590831486664342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2401991082053527</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.59072805605004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.762882953530664</v>
+        <v>1.47926354781012</v>
       </c>
       <c r="C13">
-        <v>0.3517716900869914</v>
+        <v>0.2834141750540482</v>
       </c>
       <c r="D13">
-        <v>0.08786542663526831</v>
+        <v>0.1549097699986675</v>
       </c>
       <c r="E13">
-        <v>2.446268290551018</v>
+        <v>0.04114237466776549</v>
       </c>
       <c r="F13">
-        <v>0.6229777305752293</v>
+        <v>0.5010784377203166</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1163130786400899</v>
       </c>
       <c r="I13">
-        <v>0.2341601047941992</v>
+        <v>0.00354955453124628</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>2.024743131494546</v>
+        <v>0.3361343286651</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.55037370887527</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04887548823328203</v>
       </c>
       <c r="O13">
-        <v>1.585741637845757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2054790044714672</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.416489113150206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.731956509098097</v>
+        <v>1.447546488987655</v>
       </c>
       <c r="C14">
-        <v>0.3458470354101451</v>
+        <v>0.2984917364005639</v>
       </c>
       <c r="D14">
-        <v>0.08659177799578543</v>
+        <v>0.1607787807837724</v>
       </c>
       <c r="E14">
-        <v>2.397274782398796</v>
+        <v>0.04449552704607118</v>
       </c>
       <c r="F14">
-        <v>0.614695799338854</v>
+        <v>0.4600452078691291</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.165983279359267</v>
       </c>
       <c r="I14">
-        <v>0.2335018707620264</v>
+        <v>0.003901493631079944</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.989465365545726</v>
+        <v>0.3140493349857962</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.554449311965783</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03051243583975349</v>
       </c>
       <c r="O14">
-        <v>1.569315499460117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1798308669213959</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.302970446694957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.713030474429132</v>
+        <v>1.430035305779143</v>
       </c>
       <c r="C15">
-        <v>0.3422226357403702</v>
+        <v>0.3014093511137332</v>
       </c>
       <c r="D15">
-        <v>0.08581161629874856</v>
+        <v>0.1615244096800552</v>
       </c>
       <c r="E15">
-        <v>2.367392599407964</v>
+        <v>0.04578741665689989</v>
       </c>
       <c r="F15">
-        <v>0.6096642783531223</v>
+        <v>0.4491147881163045</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1786461024187389</v>
       </c>
       <c r="I15">
-        <v>0.2331225236733125</v>
+        <v>0.004185001860379955</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.967877884027615</v>
+        <v>0.3094509122807683</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.546114166916226</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0272468681643403</v>
       </c>
       <c r="O15">
-        <v>1.559385099241524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1726175795780982</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.275895226277939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.604819644442529</v>
+        <v>1.340511015879116</v>
       </c>
       <c r="C16">
-        <v>0.3215183972376678</v>
+        <v>0.2874089466643994</v>
       </c>
       <c r="D16">
-        <v>0.08134029693103884</v>
+        <v>0.1530388482994312</v>
       </c>
       <c r="E16">
-        <v>2.19799060637169</v>
+        <v>0.04458786682733074</v>
       </c>
       <c r="F16">
-        <v>0.5814415035213116</v>
+        <v>0.4445217133144297</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1667523857223614</v>
       </c>
       <c r="I16">
-        <v>0.2313021440214129</v>
+        <v>0.00513784833303621</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.84447014547959</v>
+        <v>0.3172275320114686</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.451059211341857</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.02742974241494345</v>
       </c>
       <c r="O16">
-        <v>1.504413727676621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1627844129276355</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.290168111562153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.538636319530639</v>
+        <v>1.288795333365186</v>
       </c>
       <c r="C17">
-        <v>0.3088703204765295</v>
+        <v>0.2685465118309622</v>
       </c>
       <c r="D17">
-        <v>0.07859650496874337</v>
+        <v>0.1434238829898931</v>
       </c>
       <c r="E17">
-        <v>2.095588467760919</v>
+        <v>0.04120688046123178</v>
       </c>
       <c r="F17">
-        <v>0.5646478676890609</v>
+        <v>0.4625726960698984</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.129462850845357</v>
       </c>
       <c r="I17">
-        <v>0.2304883277570546</v>
+        <v>0.005730439993757663</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.769008237626764</v>
+        <v>0.3345209086232046</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.376299033562503</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03573827219190662</v>
       </c>
       <c r="O17">
-        <v>1.472340762786416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1685518654107092</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.360378078062254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.500635633390772</v>
+        <v>1.264389419006477</v>
       </c>
       <c r="C18">
-        <v>0.3016130332854345</v>
+        <v>0.2440928560456541</v>
       </c>
       <c r="D18">
-        <v>0.07701794190202804</v>
+        <v>0.1319131632580195</v>
       </c>
       <c r="E18">
-        <v>2.03720207833635</v>
+        <v>0.0392898112352138</v>
       </c>
       <c r="F18">
-        <v>0.5551702058464727</v>
+        <v>0.5046339619095193</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07671337380562449</v>
       </c>
       <c r="I18">
-        <v>0.2301267750926783</v>
+        <v>0.005678568159428465</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.725685244591148</v>
+        <v>0.3652355952957045</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.310266242031446</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0598348027851614</v>
       </c>
       <c r="O18">
-        <v>1.4544701834443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1892990016232829</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.496769284444255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.487779941313704</v>
+        <v>1.261726968745762</v>
       </c>
       <c r="C19">
-        <v>0.2991586694088255</v>
+        <v>0.2211260709253651</v>
       </c>
       <c r="D19">
-        <v>0.07648338686344403</v>
+        <v>0.1208753303577836</v>
       </c>
       <c r="E19">
-        <v>2.017517306525875</v>
+        <v>0.04420392876134382</v>
       </c>
       <c r="F19">
-        <v>0.5519915453465671</v>
+        <v>0.562099789621243</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03102185898215026</v>
       </c>
       <c r="I19">
-        <v>0.2300222171113759</v>
+        <v>0.005653863943737569</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.711029838493175</v>
+        <v>0.4061344623613756</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.259304626960642</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.106974031938357</v>
       </c>
       <c r="O19">
-        <v>1.448515899612772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2220101183375682</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.677626358480538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.545674630521518</v>
+        <v>1.323640061118084</v>
       </c>
       <c r="C20">
-        <v>0.3102148686693624</v>
+        <v>0.1986602308503507</v>
       </c>
       <c r="D20">
-        <v>0.07888862576486844</v>
+        <v>0.1101416163442508</v>
       </c>
       <c r="E20">
-        <v>2.106435290189694</v>
+        <v>0.06700348978852233</v>
       </c>
       <c r="F20">
-        <v>0.5664165746378487</v>
+        <v>0.6659552086229112</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003139782205565655</v>
       </c>
       <c r="I20">
-        <v>0.2305638287255789</v>
+        <v>0.004713447437069362</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.77703273147003</v>
+        <v>0.4769951240360228</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.247300155091466</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2151547097204372</v>
       </c>
       <c r="O20">
-        <v>1.475694625033356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2875715675034627</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.991197629524407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.741036703489982</v>
+        <v>1.490518518422107</v>
       </c>
       <c r="C21">
-        <v>0.3475862742508014</v>
+        <v>0.2108538539193887</v>
       </c>
       <c r="D21">
-        <v>0.08696588190390031</v>
+        <v>0.1190700800313067</v>
       </c>
       <c r="E21">
-        <v>2.411638450192811</v>
+        <v>0.07389274575790061</v>
       </c>
       <c r="F21">
-        <v>0.6171197173752034</v>
+        <v>0.7102257066950415</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001578754277609895</v>
       </c>
       <c r="I21">
-        <v>0.2336902126840101</v>
+        <v>0.003296415876747005</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.999822832542975</v>
+        <v>0.4875401253418303</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.393860073135812</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2488532984682621</v>
       </c>
       <c r="O21">
-        <v>1.574112757200794</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3280419061183579</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2.075810866188618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.869471162011479</v>
+        <v>1.600224946412112</v>
       </c>
       <c r="C22">
-        <v>0.3722119392089951</v>
+        <v>0.2192131583082215</v>
       </c>
       <c r="D22">
-        <v>0.09224383191651953</v>
+        <v>0.1252316302832881</v>
       </c>
       <c r="E22">
-        <v>2.616697217271948</v>
+        <v>0.07709737738255029</v>
       </c>
       <c r="F22">
-        <v>0.6520839978804531</v>
+        <v>0.7374660753848374</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0009316799206076087</v>
       </c>
       <c r="I22">
-        <v>0.2367873902999058</v>
+        <v>0.002337078760343836</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>2.146351149329831</v>
+        <v>0.4930395555987772</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.491186547222298</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2648591805851765</v>
       </c>
       <c r="O22">
-        <v>1.644220839321804</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3517995515263976</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.125383923414688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.800845840844431</v>
+        <v>1.542861408304958</v>
       </c>
       <c r="C23">
-        <v>0.3590480146536379</v>
+        <v>0.2139650766889645</v>
       </c>
       <c r="D23">
-        <v>0.08942684844438276</v>
+        <v>0.1216482427412089</v>
       </c>
       <c r="E23">
-        <v>2.50668835565429</v>
+        <v>0.07555920315029496</v>
       </c>
       <c r="F23">
-        <v>0.6332450030422763</v>
+        <v>0.7251202744100596</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001250447675682165</v>
       </c>
       <c r="I23">
-        <v>0.2350325477525921</v>
+        <v>0.002497641968044029</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>2.068051396893708</v>
+        <v>0.4919780342446458</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.437939517112369</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2560906025329643</v>
       </c>
       <c r="O23">
-        <v>1.60624013986893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.339185484629823</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.106057743925192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.5424924592933</v>
+        <v>1.323710720219736</v>
       </c>
       <c r="C24">
-        <v>0.3096069544919544</v>
+        <v>0.19551253212056</v>
       </c>
       <c r="D24">
-        <v>0.07875656147121646</v>
+        <v>0.1085739713639811</v>
       </c>
       <c r="E24">
-        <v>2.10152993896584</v>
+        <v>0.06943527220925816</v>
       </c>
       <c r="F24">
-        <v>0.565616392465607</v>
+        <v>0.676075814694542</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002935145189006727</v>
       </c>
       <c r="I24">
-        <v>0.230529364700093</v>
+        <v>0.004169126269623291</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.773404669781968</v>
+        <v>0.4854957586100177</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.238761322990996</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2233474938537512</v>
       </c>
       <c r="O24">
-        <v>1.474176579812905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2913660912843881</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>2.024902700349315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.266269815838513</v>
+        <v>1.087277351266238</v>
       </c>
       <c r="C25">
-        <v>0.256927161744045</v>
+        <v>0.1758129940761393</v>
       </c>
       <c r="D25">
-        <v>0.06723012614444457</v>
+        <v>0.0944748375177511</v>
       </c>
       <c r="E25">
-        <v>1.683650221058613</v>
+        <v>0.06277909376263757</v>
       </c>
       <c r="F25">
-        <v>0.4995108681944345</v>
+        <v>0.6259326906668861</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.005678352395459052</v>
       </c>
       <c r="I25">
-        <v>0.2296948848859159</v>
+        <v>0.007077801947015239</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.458569942910628</v>
+        <v>0.4798185406265461</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.024437834420922</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1881935202794054</v>
       </c>
       <c r="O25">
-        <v>1.353475982975823</v>
+        <v>0.2398795818132484</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.945286855785355</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9157414125673142</v>
+        <v>0.902804689715083</v>
       </c>
       <c r="C2">
-        <v>0.1595946342623833</v>
+        <v>0.1552568349656553</v>
       </c>
       <c r="D2">
-        <v>0.08338882040522577</v>
+        <v>0.08599509478346334</v>
       </c>
       <c r="E2">
-        <v>0.05823797035948708</v>
+        <v>0.05530900237199177</v>
       </c>
       <c r="F2">
-        <v>0.5966366312036513</v>
+        <v>0.5421237427362939</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.008386013116621405</v>
+        <v>0.006686227208913792</v>
       </c>
       <c r="I2">
-        <v>0.009261886112629458</v>
+        <v>0.006692557602291593</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>0.4813970243578112</v>
+        <v>0.4222455844400095</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1877802891565068</v>
       </c>
       <c r="M2">
-        <v>0.8637482067664735</v>
+        <v>0.1318179241843858</v>
       </c>
       <c r="N2">
-        <v>0.161874621975862</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2021533595327902</v>
+        <v>0.8904522259866496</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1715308331217145</v>
       </c>
       <c r="Q2">
-        <v>1.910814571904311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2014995607765506</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.716368393448278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7975776704670068</v>
+        <v>0.7883067233630072</v>
       </c>
       <c r="C3">
-        <v>0.1496667226100072</v>
+        <v>0.1418699311948259</v>
       </c>
       <c r="D3">
-        <v>0.07625427091771542</v>
+        <v>0.07774107495085758</v>
       </c>
       <c r="E3">
-        <v>0.05487386193263255</v>
+        <v>0.05247793630739395</v>
       </c>
       <c r="F3">
-        <v>0.5747649768895684</v>
+        <v>0.5259428790551368</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01064567959546488</v>
+        <v>0.008583511860718249</v>
       </c>
       <c r="I3">
-        <v>0.0116491928875524</v>
+        <v>0.008492883091768544</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>0.4803449368904147</v>
+        <v>0.4250799525249178</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1924419282473515</v>
       </c>
       <c r="M3">
-        <v>0.7565893375575001</v>
+        <v>0.1308604541786078</v>
       </c>
       <c r="N3">
-        <v>0.1443685127928873</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.176479218004939</v>
+        <v>0.7787712533370978</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1535073510463789</v>
       </c>
       <c r="Q3">
-        <v>1.880516703929274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1759760351080537</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.703310322433879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7248125324729813</v>
+        <v>0.7177066000596426</v>
       </c>
       <c r="C4">
-        <v>0.1435937625574937</v>
+        <v>0.1337557817333987</v>
       </c>
       <c r="D4">
-        <v>0.07187113472411255</v>
+        <v>0.07268932419021468</v>
       </c>
       <c r="E4">
-        <v>0.0527762163289669</v>
+        <v>0.05070448917001791</v>
       </c>
       <c r="F4">
-        <v>0.5617717170165193</v>
+        <v>0.5163487543585958</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01222490135615185</v>
+        <v>0.009915340883949412</v>
       </c>
       <c r="I4">
-        <v>0.01334953877140199</v>
+        <v>0.009797620424882858</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>0.479889183007657</v>
+        <v>0.4269469102017709</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1953548836880223</v>
       </c>
       <c r="M4">
-        <v>0.6907931863071326</v>
+        <v>0.1308276560004877</v>
       </c>
       <c r="N4">
-        <v>0.1336340648971301</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1606983349326789</v>
+        <v>0.7102375441013606</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1424678749911408</v>
       </c>
       <c r="Q4">
-        <v>1.863178308126507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1602788917871827</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.696283856563966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.694816281069734</v>
+        <v>0.6885826989636428</v>
       </c>
       <c r="C5">
-        <v>0.141302201607246</v>
+        <v>0.1306813588403628</v>
       </c>
       <c r="D5">
-        <v>0.07015284877794414</v>
+        <v>0.07070476425916894</v>
       </c>
       <c r="E5">
-        <v>0.05186898236985371</v>
+        <v>0.04993209025122525</v>
       </c>
       <c r="F5">
-        <v>0.5560005573222426</v>
+        <v>0.511985101365795</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0129196182704527</v>
+        <v>0.01050263882382917</v>
       </c>
       <c r="I5">
-        <v>0.01418679762771857</v>
+        <v>0.01047640686709439</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>0.4792478093920991</v>
+        <v>0.4272959392443312</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1963381529683019</v>
       </c>
       <c r="M5">
-        <v>0.6642861664794992</v>
+        <v>0.130837721337679</v>
       </c>
       <c r="N5">
-        <v>0.1293150305329007</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.154246090153034</v>
+        <v>0.6826180749910264</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1380260600215379</v>
       </c>
       <c r="Q5">
-        <v>1.854510608994019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1538592930740492</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.691926021703466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6894799969278438</v>
+        <v>0.6834033902314616</v>
       </c>
       <c r="C6">
-        <v>0.1411431277837423</v>
+        <v>0.130428788202444</v>
       </c>
       <c r="D6">
-        <v>0.06995217868466597</v>
+        <v>0.07046203642558879</v>
       </c>
       <c r="E6">
-        <v>0.05166391945475013</v>
+        <v>0.04975362665305205</v>
       </c>
       <c r="F6">
-        <v>0.554338004377783</v>
+        <v>0.5106110893798999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01304337149155156</v>
+        <v>0.0106075231720122</v>
       </c>
       <c r="I6">
-        <v>0.01444319817523443</v>
+        <v>0.01072131566565115</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>0.4785310187509317</v>
+        <v>0.4268159600181072</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1962388256865282</v>
       </c>
       <c r="M6">
-        <v>0.6602652824158071</v>
+        <v>0.1307060772588482</v>
       </c>
       <c r="N6">
-        <v>0.1286628020225677</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1531545069174669</v>
+        <v>0.6784042480264816</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.137351497044591</v>
       </c>
       <c r="Q6">
-        <v>1.850757805805529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1527737046836393</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.689100133495131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7234434120395576</v>
+        <v>0.7163865888399812</v>
       </c>
       <c r="C7">
-        <v>0.1441693214085618</v>
+        <v>0.1344217332008313</v>
       </c>
       <c r="D7">
-        <v>0.0720805021256794</v>
+        <v>0.07290068988720577</v>
       </c>
       <c r="E7">
-        <v>0.05261689796383884</v>
+        <v>0.05055895643616459</v>
       </c>
       <c r="F7">
-        <v>0.5597543760697548</v>
+        <v>0.5145076817606906</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01224862756648583</v>
+        <v>0.009935874629966705</v>
       </c>
       <c r="I7">
-        <v>0.01365498502523277</v>
+        <v>0.01014046067104335</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>0.4782089133041971</v>
+        <v>0.4254860451217262</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1946703434356181</v>
       </c>
       <c r="M7">
-        <v>0.6914797793977669</v>
+        <v>0.130425118341881</v>
       </c>
       <c r="N7">
-        <v>0.1337535305870645</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1605568300562261</v>
+        <v>0.7108854638189825</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1425799484674286</v>
       </c>
       <c r="Q7">
-        <v>1.856700907907651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1601397519976011</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.690468068080449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8737490167591773</v>
+        <v>0.8621472347153087</v>
       </c>
       <c r="C8">
-        <v>0.1569822911794247</v>
+        <v>0.1515866165723168</v>
       </c>
       <c r="D8">
-        <v>0.08124192518847195</v>
+        <v>0.08346762458402424</v>
       </c>
       <c r="E8">
-        <v>0.0568905987322772</v>
+        <v>0.05416332957687509</v>
       </c>
       <c r="F8">
-        <v>0.5864446127007028</v>
+        <v>0.5341364770974124</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.009139913555239867</v>
+        <v>0.007318433348220743</v>
       </c>
       <c r="I8">
-        <v>0.01038827593873215</v>
+        <v>0.007673845694220027</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>0.4788004290680128</v>
+        <v>0.4212980879883723</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1885440818069739</v>
       </c>
       <c r="M8">
-        <v>0.8281921911882648</v>
+        <v>0.1307802918628092</v>
       </c>
       <c r="N8">
-        <v>0.156072996460459</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.193230407014795</v>
+        <v>0.8533002740486211</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1655412827795857</v>
       </c>
       <c r="Q8">
-        <v>1.891735312471354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1926330965044443</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.7041498253556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.168729777074674</v>
+        <v>1.147424944090858</v>
       </c>
       <c r="C9">
-        <v>0.1812835309698002</v>
+        <v>0.1848928637398757</v>
       </c>
       <c r="D9">
-        <v>0.09878981803977638</v>
+        <v>0.1039094767371935</v>
       </c>
       <c r="E9">
-        <v>0.0652908233627798</v>
+        <v>0.06120111578246323</v>
       </c>
       <c r="F9">
-        <v>0.645927125617483</v>
+        <v>0.5786926582683947</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.004624010527239597</v>
+        <v>0.003561431538583903</v>
       </c>
       <c r="I9">
-        <v>0.00548696162653517</v>
+        <v>0.003983170274006298</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.4844941876395303</v>
+        <v>0.4167010652122087</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1780344597538317</v>
       </c>
       <c r="M9">
-        <v>1.09466780169106</v>
+        <v>0.1367321075450221</v>
       </c>
       <c r="N9">
-        <v>0.1996888968983512</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.257318064847734</v>
+        <v>1.131280695587691</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2105206082826925</v>
       </c>
       <c r="Q9">
-        <v>1.982330466695032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.256287145853328</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.74947756461674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.383044240307356</v>
+        <v>1.354710202693894</v>
       </c>
       <c r="C10">
-        <v>0.2019788467968056</v>
+        <v>0.2128715333498974</v>
       </c>
       <c r="D10">
-        <v>0.1130786340362135</v>
+        <v>0.120370426315155</v>
       </c>
       <c r="E10">
-        <v>0.06836973495263443</v>
+        <v>0.06356450648049261</v>
       </c>
       <c r="F10">
-        <v>0.681927226159857</v>
+        <v>0.6049550888329165</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.002699770164886761</v>
+        <v>0.002034685434739725</v>
       </c>
       <c r="I10">
-        <v>0.003388610198309827</v>
+        <v>0.002583804755909469</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.4816341146875409</v>
+        <v>0.4078416082984191</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1683978101144952</v>
       </c>
       <c r="M10">
-        <v>1.296869460072571</v>
+        <v>0.1413538649181554</v>
       </c>
       <c r="N10">
-        <v>0.2205663651842258</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2988920564812929</v>
+        <v>1.341546346460802</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2320990700173553</v>
       </c>
       <c r="Q10">
-        <v>2.022913964021171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2975246116291856</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.761617467783822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.467863724110657</v>
+        <v>1.441346396404811</v>
       </c>
       <c r="C11">
-        <v>0.2347446780599398</v>
+        <v>0.2498190021888718</v>
       </c>
       <c r="D11">
-        <v>0.1315276042148525</v>
+        <v>0.1392439590595984</v>
       </c>
       <c r="E11">
-        <v>0.05024343571646384</v>
+        <v>0.04751238343835151</v>
       </c>
       <c r="F11">
-        <v>0.616892406255559</v>
+        <v>0.5494665101016523</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02132648869189069</v>
+        <v>0.02067688015032942</v>
       </c>
       <c r="I11">
-        <v>0.003451137731307341</v>
+        <v>0.002904263348847635</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.4187912460158287</v>
+        <v>0.3570672468320915</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1483642392731888</v>
       </c>
       <c r="M11">
-        <v>1.43876102975355</v>
+        <v>0.1244671389379839</v>
       </c>
       <c r="N11">
-        <v>0.1427143556447987</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2710109758665098</v>
+        <v>1.482355493014836</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1517152026696635</v>
       </c>
       <c r="Q11">
-        <v>1.781833181959172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2698091201729831</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.557412893317405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.495628317776692</v>
+        <v>1.472237482736773</v>
       </c>
       <c r="C12">
-        <v>0.2606567348436357</v>
+        <v>0.2765742763167225</v>
       </c>
       <c r="D12">
-        <v>0.1447417387232122</v>
+        <v>0.1521645875065616</v>
       </c>
       <c r="E12">
-        <v>0.04222043958999167</v>
+        <v>0.04107055730780895</v>
       </c>
       <c r="F12">
-        <v>0.5593525992668447</v>
+        <v>0.5012360341105477</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06020020855145702</v>
+        <v>0.05952498833265452</v>
       </c>
       <c r="I12">
-        <v>0.003366746611717986</v>
+        <v>0.002842764344169524</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.3734388859794713</v>
+        <v>0.3217627734002448</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1359628997043334</v>
       </c>
       <c r="M12">
-        <v>1.51655246710456</v>
+        <v>0.1108717582018244</v>
       </c>
       <c r="N12">
-        <v>0.08820998579319195</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2401991082053527</v>
+        <v>1.557195471287514</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.09519687601758875</v>
       </c>
       <c r="Q12">
-        <v>1.59072805605004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2391964644326343</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.399762227823174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.47926354781012</v>
+        <v>1.460246284173849</v>
       </c>
       <c r="C13">
-        <v>0.2834141750540482</v>
+        <v>0.2977623438528951</v>
       </c>
       <c r="D13">
-        <v>0.1549097699986675</v>
+        <v>0.1614698803164458</v>
       </c>
       <c r="E13">
-        <v>0.04114237466776549</v>
+        <v>0.0412432239414624</v>
       </c>
       <c r="F13">
-        <v>0.5010784377203166</v>
+        <v>0.4528082951005601</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1163130786400899</v>
+        <v>0.1155712935249653</v>
       </c>
       <c r="I13">
-        <v>0.00354955453124628</v>
+        <v>0.002941990632097102</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.3361343286651</v>
+        <v>0.2937626703624936</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1271124232456398</v>
       </c>
       <c r="M13">
-        <v>1.55037370887527</v>
+        <v>0.09854919927697736</v>
       </c>
       <c r="N13">
-        <v>0.04887548823328203</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2054790044714672</v>
+        <v>1.586428648583478</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05415909623896553</v>
       </c>
       <c r="Q13">
-        <v>1.416489113150206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.20470603785542</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.258948409463059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.447546488987655</v>
+        <v>1.432144578328632</v>
       </c>
       <c r="C14">
-        <v>0.2984917364005639</v>
+        <v>0.3105250069883567</v>
       </c>
       <c r="D14">
-        <v>0.1607787807837724</v>
+        <v>0.1664555507534828</v>
       </c>
       <c r="E14">
-        <v>0.04449552704607118</v>
+        <v>0.04525018443242779</v>
       </c>
       <c r="F14">
-        <v>0.4600452078691291</v>
+        <v>0.4187681924785309</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.165983279359267</v>
+        <v>0.16517576827097</v>
       </c>
       <c r="I14">
-        <v>0.003901493631079944</v>
+        <v>0.003199109189728766</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.3140493349857962</v>
+        <v>0.277642135665813</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1223315232172189</v>
       </c>
       <c r="M14">
-        <v>1.554449311965783</v>
+        <v>0.09083066242865456</v>
       </c>
       <c r="N14">
-        <v>0.03051243583975349</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1798308669213959</v>
+        <v>1.586521584275062</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03480590732910116</v>
       </c>
       <c r="Q14">
-        <v>1.302970446694957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1792244812137653</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.168210757315322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.430035305779143</v>
+        <v>1.415763557453374</v>
       </c>
       <c r="C15">
-        <v>0.3014093511137332</v>
+        <v>0.3124950090460743</v>
       </c>
       <c r="D15">
-        <v>0.1615244096800552</v>
+        <v>0.1668868812068496</v>
       </c>
       <c r="E15">
-        <v>0.04578741665689989</v>
+        <v>0.04666152415465241</v>
       </c>
       <c r="F15">
-        <v>0.4491147881163045</v>
+        <v>0.4097407707065628</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1786461024187389</v>
+        <v>0.1778072228096335</v>
       </c>
       <c r="I15">
-        <v>0.004185001860379955</v>
+        <v>0.00345451695372212</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.3094509122807683</v>
+        <v>0.2744914481953131</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.121498364335606</v>
       </c>
       <c r="M15">
-        <v>1.546114166916226</v>
+        <v>0.08907043472760279</v>
       </c>
       <c r="N15">
-        <v>0.0272468681643403</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1726175795780982</v>
+        <v>1.576908424972601</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.03133752509254428</v>
       </c>
       <c r="Q15">
-        <v>1.275895226277939</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1720583176839341</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.147073718900202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.340511015879116</v>
+        <v>1.328326788343219</v>
       </c>
       <c r="C16">
-        <v>0.2874089466643994</v>
+        <v>0.2954010313179651</v>
       </c>
       <c r="D16">
-        <v>0.1530388482994312</v>
+        <v>0.1576066069071373</v>
       </c>
       <c r="E16">
-        <v>0.04458786682733074</v>
+        <v>0.0453220772823304</v>
       </c>
       <c r="F16">
-        <v>0.4445217133144297</v>
+        <v>0.4069848493939716</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1667523857223614</v>
+        <v>0.1657448393037697</v>
       </c>
       <c r="I16">
-        <v>0.00513784833303621</v>
+        <v>0.004166200781347662</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.3172275320114686</v>
+        <v>0.2824658714731303</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1249745082834082</v>
       </c>
       <c r="M16">
-        <v>1.451059211341857</v>
+        <v>0.09044335907474199</v>
       </c>
       <c r="N16">
-        <v>0.02742974241494345</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1627844129276355</v>
+        <v>1.479343551055905</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.03167796872006789</v>
       </c>
       <c r="Q16">
-        <v>1.290168111562153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1622952170285679</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.16534935238333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.288795333365186</v>
+        <v>1.276290174234873</v>
       </c>
       <c r="C17">
-        <v>0.2685465118309622</v>
+        <v>0.27556666105923</v>
       </c>
       <c r="D17">
-        <v>0.1434238829898931</v>
+        <v>0.1478776655699079</v>
       </c>
       <c r="E17">
-        <v>0.04120688046123178</v>
+        <v>0.04155930569453314</v>
       </c>
       <c r="F17">
-        <v>0.4625726960698984</v>
+        <v>0.4228789232031787</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.129462850845357</v>
+        <v>0.1283574761809518</v>
       </c>
       <c r="I17">
-        <v>0.005730439993757663</v>
+        <v>0.004622546580352882</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.3345209086232046</v>
+        <v>0.2969796574904127</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1305325909797226</v>
       </c>
       <c r="M17">
-        <v>1.376299033562503</v>
+        <v>0.09522255164814197</v>
       </c>
       <c r="N17">
-        <v>0.03573827219190662</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1685518654107092</v>
+        <v>1.404800423784053</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0405816604351763</v>
       </c>
       <c r="Q17">
-        <v>1.360378078062254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1680353261485301</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.227176568730002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.264389419006477</v>
+        <v>1.249501342758379</v>
       </c>
       <c r="C18">
-        <v>0.2440928560456541</v>
+        <v>0.251345900656716</v>
       </c>
       <c r="D18">
-        <v>0.1319131632580195</v>
+        <v>0.1367407880539417</v>
       </c>
       <c r="E18">
-        <v>0.0392898112352138</v>
+        <v>0.03885314370379334</v>
       </c>
       <c r="F18">
-        <v>0.5046339619095193</v>
+        <v>0.4587106417983762</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07671337380562449</v>
+        <v>0.07558873242325603</v>
       </c>
       <c r="I18">
-        <v>0.005678568159428465</v>
+        <v>0.004478894415154144</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.3652355952957045</v>
+        <v>0.3213774014841881</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.139665457837765</v>
       </c>
       <c r="M18">
-        <v>1.310266242031446</v>
+        <v>0.1041450936968946</v>
       </c>
       <c r="N18">
-        <v>0.0598348027851614</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1892990016232829</v>
+        <v>1.341226868414907</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.06585886499391336</v>
       </c>
       <c r="Q18">
-        <v>1.496769284444255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1886633661139072</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.34181761888334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.261726968745762</v>
+        <v>1.243099014425496</v>
       </c>
       <c r="C19">
-        <v>0.2211260709253651</v>
+        <v>0.2290252236581551</v>
       </c>
       <c r="D19">
-        <v>0.1208753303577836</v>
+        <v>0.1263238295537832</v>
       </c>
       <c r="E19">
-        <v>0.04420392876134382</v>
+        <v>0.04246147044664106</v>
       </c>
       <c r="F19">
-        <v>0.562099789621243</v>
+        <v>0.5068283213673652</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03102185898215026</v>
+        <v>0.02996808617594127</v>
       </c>
       <c r="I19">
-        <v>0.005653863943737569</v>
+        <v>0.004524006907713485</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>0.4061344623613756</v>
+        <v>0.3529754013172592</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1513588343780441</v>
       </c>
       <c r="M19">
-        <v>1.259304626960642</v>
+        <v>0.1161140386737518</v>
       </c>
       <c r="N19">
-        <v>0.106974031938357</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2220101183375682</v>
+        <v>1.294090451193199</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1147960672684221</v>
       </c>
       <c r="Q19">
-        <v>1.677626358480538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.221178600721899</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.490236616513698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.323640061118084</v>
+        <v>1.297350587375803</v>
       </c>
       <c r="C20">
-        <v>0.1986602308503507</v>
+        <v>0.2080447195380657</v>
       </c>
       <c r="D20">
-        <v>0.1101416163442508</v>
+        <v>0.1168832249570997</v>
       </c>
       <c r="E20">
-        <v>0.06700348978852233</v>
+        <v>0.06244309620700506</v>
       </c>
       <c r="F20">
-        <v>0.6659552086229112</v>
+        <v>0.5922233747208949</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.003139782205565655</v>
+        <v>0.002375591050337356</v>
       </c>
       <c r="I20">
-        <v>0.004713447437069362</v>
+        <v>0.003888721080654634</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>0.4769951240360228</v>
+        <v>0.4056584394238847</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1692695641686655</v>
       </c>
       <c r="M20">
-        <v>1.247300155091466</v>
+        <v>0.13824483716337</v>
       </c>
       <c r="N20">
-        <v>0.2151547097204372</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2875715675034627</v>
+        <v>1.289771552878676</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2264736312590401</v>
       </c>
       <c r="Q20">
-        <v>1.991197629524407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2863045981759242</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.739968122800519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.490518518422107</v>
+        <v>1.457761049203725</v>
       </c>
       <c r="C21">
-        <v>0.2108538539193887</v>
+        <v>0.2257183869467525</v>
       </c>
       <c r="D21">
-        <v>0.1190700800313067</v>
+        <v>0.127592321805011</v>
       </c>
       <c r="E21">
-        <v>0.07389274575790061</v>
+        <v>0.06831547977855124</v>
       </c>
       <c r="F21">
-        <v>0.7102257066950415</v>
+        <v>0.6262387687156092</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.001578754277609895</v>
+        <v>0.001102962664315643</v>
       </c>
       <c r="I21">
-        <v>0.003296415876747005</v>
+        <v>0.002930518484022038</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.4875401253418303</v>
+        <v>0.4086717282923082</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1654841972389569</v>
       </c>
       <c r="M21">
-        <v>1.393860073135812</v>
+        <v>0.1463351904878181</v>
       </c>
       <c r="N21">
-        <v>0.2488532984682621</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3280419061183579</v>
+        <v>1.44336735096573</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2612677258592129</v>
       </c>
       <c r="Q21">
-        <v>2.075810866188618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3264360387089908</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.792885353989874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.600224946412112</v>
+        <v>1.563357980083055</v>
       </c>
       <c r="C22">
-        <v>0.2192131583082215</v>
+        <v>0.2376200954011978</v>
       </c>
       <c r="D22">
-        <v>0.1252316302832881</v>
+        <v>0.1348934440895988</v>
       </c>
       <c r="E22">
-        <v>0.07709737738255029</v>
+        <v>0.07097861215468271</v>
       </c>
       <c r="F22">
-        <v>0.7374660753848374</v>
+        <v>0.6472404453493468</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0009316799206076087</v>
+        <v>0.0006046322771346979</v>
       </c>
       <c r="I22">
-        <v>0.002337078760343836</v>
+        <v>0.002156554407019229</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.4930395555987772</v>
+        <v>0.4097141839381813</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1626127742584131</v>
       </c>
       <c r="M22">
-        <v>1.491186547222298</v>
+        <v>0.1517692403402116</v>
       </c>
       <c r="N22">
-        <v>0.2648591805851765</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3517995515263976</v>
+        <v>1.545064161201083</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2778247740688897</v>
       </c>
       <c r="Q22">
-        <v>2.125383923414688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3499741678219408</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.823402031619707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.542861408304958</v>
+        <v>1.508141858861222</v>
       </c>
       <c r="C23">
-        <v>0.2139650766889645</v>
+        <v>0.2302953690886937</v>
       </c>
       <c r="D23">
-        <v>0.1216482427412089</v>
+        <v>0.130687723259129</v>
       </c>
       <c r="E23">
-        <v>0.07555920315029496</v>
+        <v>0.06971111138278907</v>
       </c>
       <c r="F23">
-        <v>0.7251202744100596</v>
+        <v>0.6380015424045098</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.001250447675682165</v>
+        <v>0.0008477889937497096</v>
       </c>
       <c r="I23">
-        <v>0.002497641968044029</v>
+        <v>0.002162809705976265</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.4919780342446458</v>
+        <v>0.4107207681463585</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1646690824101036</v>
       </c>
       <c r="M23">
-        <v>1.437939517112369</v>
+        <v>0.1494796919222381</v>
       </c>
       <c r="N23">
-        <v>0.2560906025329643</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.339185484629823</v>
+        <v>1.489504566588636</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2687662920609029</v>
       </c>
       <c r="Q23">
-        <v>2.106057743925192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3374758528432835</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.813367476452868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.323710720219736</v>
+        <v>1.296994617407933</v>
       </c>
       <c r="C24">
-        <v>0.19551253212056</v>
+        <v>0.2044563769156582</v>
       </c>
       <c r="D24">
-        <v>0.1085739713639811</v>
+        <v>0.1153141750033839</v>
       </c>
       <c r="E24">
-        <v>0.06943527220925816</v>
+        <v>0.06463372947297863</v>
       </c>
       <c r="F24">
-        <v>0.676075814694542</v>
+        <v>0.6008855662436403</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.002935145189006727</v>
+        <v>0.002183915929773739</v>
       </c>
       <c r="I24">
-        <v>0.004169126269623291</v>
+        <v>0.003252631908842396</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>0.4854957586100177</v>
+        <v>0.4124473214854376</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1717943717704635</v>
       </c>
       <c r="M24">
-        <v>1.238761322990996</v>
+        <v>0.1407997598474786</v>
       </c>
       <c r="N24">
-        <v>0.2233474938537512</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2913660912843881</v>
+        <v>1.281562911819407</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2349322018244919</v>
       </c>
       <c r="Q24">
-        <v>2.024902700349315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2900710775408513</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.768262843723619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.087277351266238</v>
+        <v>1.068757589289874</v>
       </c>
       <c r="C25">
-        <v>0.1758129940761393</v>
+        <v>0.1771448834149822</v>
       </c>
       <c r="D25">
-        <v>0.0944748375177511</v>
+        <v>0.09881061856528817</v>
       </c>
       <c r="E25">
-        <v>0.06277909376263757</v>
+        <v>0.05908675455735235</v>
       </c>
       <c r="F25">
-        <v>0.6259326906668861</v>
+        <v>0.5631484820251131</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.005678352395459052</v>
+        <v>0.004431800893974269</v>
       </c>
       <c r="I25">
-        <v>0.007077801947015239</v>
+        <v>0.005357987888959137</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.4798185406265461</v>
+        <v>0.4153043472943594</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1798381565588905</v>
       </c>
       <c r="M25">
-        <v>1.024437834420922</v>
+        <v>0.1337457484486961</v>
       </c>
       <c r="N25">
-        <v>0.1881935202794054</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2398795818132484</v>
+        <v>1.057875311467484</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1986382343491826</v>
       </c>
       <c r="Q25">
-        <v>1.945286855785355</v>
+        <v>0.2389790474082538</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.72619063852116</v>
       </c>
     </row>
   </sheetData>
